--- a/Codemig/System/Optimization_Rotor.xlsx
+++ b/Codemig/System/Optimization_Rotor.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,25 +348,25 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1">
-        <v>720</v>
+        <v>880</v>
       </c>
       <c r="B1">
         <v>0.25</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D1">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G1">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H1">
         <v>14</v>
@@ -375,87 +375,87 @@
         <v>43</v>
       </c>
       <c r="J1">
-        <v>375.0153627878429</v>
+        <v>226.9249736884597</v>
       </c>
       <c r="K1">
-        <v>367.5070418447813</v>
+        <v>222.9772709307958</v>
       </c>
       <c r="L1">
-        <v>6.997264943061595</v>
+        <v>3.678422757663911</v>
       </c>
       <c r="M1">
-        <v>0.5110560000000001</v>
+        <v>0.26928</v>
       </c>
       <c r="N1">
-        <v>2141.075683208559</v>
+        <v>2523.309340294929</v>
       </c>
       <c r="O1">
-        <v>1.158861512280323</v>
+        <v>0.909924020296354</v>
       </c>
       <c r="P1">
-        <v>67.09253823424032</v>
+        <v>58.34782653730444</v>
       </c>
       <c r="Q1">
-        <v>0.8045223732336368</v>
+        <v>0.7070386542579759</v>
       </c>
       <c r="R1">
-        <v>63.17147848256404</v>
+        <v>58.50125904250596</v>
       </c>
       <c r="S1">
-        <v>775.9943336710002</v>
+        <v>926.783410643398</v>
       </c>
       <c r="T1">
-        <v>1104.687845381981</v>
+        <v>1349.572956568764</v>
       </c>
       <c r="U1">
-        <v>106.6014688267687</v>
+        <v>91.51945035039111</v>
       </c>
       <c r="V1">
-        <v>137.0383275502326</v>
+        <v>117.7228064512749</v>
       </c>
       <c r="W1">
-        <v>301.455486002819</v>
+        <v>261.0087216548144</v>
       </c>
       <c r="X1">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="Y1">
         <v>25</v>
       </c>
       <c r="Z1">
-        <v>0.1046871392530014</v>
+        <v>0.09173048529679272</v>
       </c>
       <c r="AA1">
-        <v>0.1576615663440493</v>
+        <v>0.1498117508377698</v>
       </c>
       <c r="AB1">
-        <v>4218.771256860609</v>
+        <v>4899.550032199019</v>
       </c>
       <c r="AC1">
-        <v>267.2086220590468</v>
+        <v>158.5505611299104</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2">
-        <v>705</v>
+        <v>880</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -464,87 +464,87 @@
         <v>43</v>
       </c>
       <c r="J2">
-        <v>364.0695958942626</v>
+        <v>222.9783314417133</v>
       </c>
       <c r="K2">
-        <v>356.6441325972981</v>
+        <v>219.0428659945924</v>
       </c>
       <c r="L2">
-        <v>6.923143296964581</v>
+        <v>3.667625447120861</v>
       </c>
       <c r="M2">
-        <v>0.50232</v>
+        <v>0.26784</v>
       </c>
       <c r="N2">
-        <v>2110.449079402269</v>
+        <v>2530.353371764046</v>
       </c>
       <c r="O2">
-        <v>1.191924290021955</v>
+        <v>0.9099586206777776</v>
       </c>
       <c r="P2">
-        <v>68.60340088535833</v>
+        <v>58.34964840724733</v>
       </c>
       <c r="Q2">
-        <v>0.8079129518510428</v>
+        <v>0.7111741232305254</v>
       </c>
       <c r="R2">
-        <v>63.35004778225072</v>
+        <v>58.73358152518061</v>
       </c>
       <c r="S2">
-        <v>786.0635837244172</v>
+        <v>925.9880874612182</v>
       </c>
       <c r="T2">
-        <v>1062.281988700993</v>
+        <v>1357.173996798088</v>
       </c>
       <c r="U2">
-        <v>96.54678984251696</v>
+        <v>86.49211085826526</v>
       </c>
       <c r="V2">
-        <v>128.7800435982896</v>
+        <v>113.5937412377282</v>
       </c>
       <c r="W2">
-        <v>304.4087958715262</v>
+        <v>258.5386546161691</v>
       </c>
       <c r="X2">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="Y2">
         <v>25</v>
       </c>
       <c r="Z2">
-        <v>0.1069917706282263</v>
+        <v>0.09173329931376009</v>
       </c>
       <c r="AA2">
-        <v>0.1580001969351216</v>
+        <v>0.1502838283395189</v>
       </c>
       <c r="AB2">
-        <v>4139.752626550659</v>
+        <v>4914.989190515779</v>
       </c>
       <c r="AC2">
-        <v>267.9940819987972</v>
+        <v>157.5916778206069</v>
       </c>
     </row>
     <row r="3" spans="1:29">
       <c r="A3">
-        <v>715</v>
+        <v>820</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -553,46 +553,46 @@
         <v>43</v>
       </c>
       <c r="J3">
-        <v>372.6720144817729</v>
+        <v>229.1814010559893</v>
       </c>
       <c r="K3">
-        <v>364.8391303067269</v>
+        <v>224.9970218334677</v>
       </c>
       <c r="L3">
-        <v>7.301860175045965</v>
+        <v>3.899259222521658</v>
       </c>
       <c r="M3">
-        <v>0.5310240000000001</v>
+        <v>0.28512</v>
       </c>
       <c r="N3">
-        <v>2023.935350110797</v>
+        <v>2110.080457768803</v>
       </c>
       <c r="O3">
-        <v>1.170291719480965</v>
+        <v>0.9929145966552984</v>
       </c>
       <c r="P3">
-        <v>67.61486195697594</v>
+        <v>62.71766381628026</v>
       </c>
       <c r="Q3">
-        <v>0.7782396743675341</v>
+        <v>0.6529455547829409</v>
       </c>
       <c r="R3">
-        <v>61.78726544402778</v>
+        <v>55.46241550407682</v>
       </c>
       <c r="S3">
-        <v>757.8244983144646</v>
+        <v>878.219477460288</v>
       </c>
       <c r="T3">
-        <v>1006.599560131758</v>
+        <v>983.710406081924</v>
       </c>
       <c r="U3">
-        <v>101.5741293346428</v>
+        <v>91.51945035039111</v>
       </c>
       <c r="V3">
-        <v>133.8982553160798</v>
+        <v>118.7123167225513</v>
       </c>
       <c r="W3">
-        <v>300.651900984013</v>
+        <v>265.9219246381257</v>
       </c>
       <c r="X3">
         <v>0.21</v>
@@ -601,39 +601,39 @@
         <v>25</v>
       </c>
       <c r="Z3">
-        <v>0.105483878545319</v>
+        <v>0.09848003198957211</v>
       </c>
       <c r="AA3">
-        <v>0.1550366085252532</v>
+        <v>0.1436368440904226</v>
       </c>
       <c r="AB3">
-        <v>4119.722338440175</v>
+        <v>4377.310480146547</v>
       </c>
       <c r="AC3">
-        <v>268.5685204747395</v>
+        <v>161.4286468147637</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4">
-        <v>710</v>
+        <v>795</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -642,87 +642,87 @@
         <v>43</v>
       </c>
       <c r="J4">
-        <v>380.8459207680128</v>
+        <v>232.2624848311091</v>
       </c>
       <c r="K4">
-        <v>372.6027779078699</v>
+        <v>228.0781056085874</v>
       </c>
       <c r="L4">
-        <v>7.68341486014285</v>
+        <v>3.899259222521658</v>
       </c>
       <c r="M4">
-        <v>0.559728</v>
+        <v>0.28512</v>
       </c>
       <c r="N4">
-        <v>1904.058588770377</v>
+        <v>2009.74477300205</v>
       </c>
       <c r="O4">
-        <v>1.181224711360073</v>
+        <v>1.113939328957619</v>
       </c>
       <c r="P4">
-        <v>68.11446453798722</v>
+        <v>65.03973887420685</v>
       </c>
       <c r="Q4">
-        <v>0.7263254653027607</v>
+        <v>0.6662025359656205</v>
       </c>
       <c r="R4">
-        <v>59.58475401116455</v>
+        <v>56.20716653511462</v>
       </c>
       <c r="S4">
-        <v>741.7936348192585</v>
+        <v>859.1545075749098</v>
       </c>
       <c r="T4">
-        <v>904.5028445049398</v>
+        <v>899.288754551274</v>
       </c>
       <c r="U4">
-        <v>106.6014688267687</v>
+        <v>91.51945035039111</v>
       </c>
       <c r="V4">
-        <v>139.0170451190147</v>
+        <v>118.7123167225513</v>
       </c>
       <c r="W4">
-        <v>304.384740312097</v>
+        <v>264.4491317540251</v>
       </c>
       <c r="X4">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="Y4">
         <v>25</v>
       </c>
       <c r="Z4">
-        <v>0.1062459595872257</v>
+        <v>0.1015558514362869</v>
       </c>
       <c r="AA4">
-        <v>0.1520134042983968</v>
+        <v>0.1451501724696212</v>
       </c>
       <c r="AB4">
-        <v>4011.140540389635</v>
+        <v>4288.568289074768</v>
       </c>
       <c r="AC4">
-        <v>271.7615242483902</v>
+        <v>163.1488067378768</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5">
-        <v>710</v>
+        <v>780</v>
       </c>
       <c r="B5">
         <v>0.25</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G5">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -731,87 +731,87 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>368.9465765385925</v>
+        <v>235.4457502877207</v>
       </c>
       <c r="K5">
-        <v>361.652729558546</v>
+        <v>231.261371065199</v>
       </c>
       <c r="L5">
-        <v>6.797810180046494</v>
+        <v>3.899259222521658</v>
       </c>
       <c r="M5">
-        <v>0.4960368000000001</v>
+        <v>0.28512</v>
       </c>
       <c r="N5">
-        <v>2240.008562087994</v>
+        <v>1952.129687016253</v>
       </c>
       <c r="O5">
-        <v>1.179490631646225</v>
+        <v>1.145629435596934</v>
       </c>
       <c r="P5">
-        <v>68.03522266986025</v>
+        <v>66.48787486887254</v>
       </c>
       <c r="Q5">
-        <v>0.8510558880544462</v>
+        <v>0.6787985335763488</v>
       </c>
       <c r="R5">
-        <v>65.62222748182144</v>
+        <v>56.91478481398762</v>
       </c>
       <c r="S5">
-        <v>785.8730322959723</v>
+        <v>847.6244888190985</v>
       </c>
       <c r="T5">
-        <v>1190.292192400275</v>
+        <v>851.0299005100713</v>
       </c>
       <c r="U5">
-        <v>101.5741293346428</v>
+        <v>91.51945035039111</v>
       </c>
       <c r="V5">
-        <v>131.9189595674655</v>
+        <v>118.7123167225513</v>
       </c>
       <c r="W5">
-        <v>297.5914908472058</v>
+        <v>263.0981839874795</v>
       </c>
       <c r="X5">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="Y5">
         <v>25</v>
       </c>
       <c r="Z5">
-        <v>0.1061250860615073</v>
+        <v>0.1037648011686993</v>
       </c>
       <c r="AA5">
-        <v>0.1623090538105091</v>
+        <v>0.1465880473814101</v>
       </c>
       <c r="AB5">
-        <v>4282.809327351418</v>
+        <v>4249.333407638284</v>
       </c>
       <c r="AC5">
-        <v>265.3590974393135</v>
+        <v>164.9633286364582</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -820,87 +820,87 @@
         <v>43</v>
       </c>
       <c r="J6">
-        <v>367.8215188674226</v>
+        <v>233.3349275193326</v>
       </c>
       <c r="K6">
-        <v>360.2246987251434</v>
+        <v>229.1505482968109</v>
       </c>
       <c r="L6">
-        <v>7.082908142279147</v>
+        <v>3.899259222521658</v>
       </c>
       <c r="M6">
-        <v>0.513912</v>
+        <v>0.28512</v>
       </c>
       <c r="N6">
-        <v>2116.924687233298</v>
+        <v>1950.236650394199</v>
       </c>
       <c r="O6">
-        <v>1.191715457839301</v>
+        <v>1.154976549121461</v>
       </c>
       <c r="P6">
-        <v>68.59385792597395</v>
+        <v>66.91500790743105</v>
       </c>
       <c r="Q6">
-        <v>0.8234388315266817</v>
+        <v>0.6729503711910729</v>
       </c>
       <c r="R6">
-        <v>64.16773873519475</v>
+        <v>56.58624659656893</v>
       </c>
       <c r="S6">
-        <v>767.2015267751391</v>
+        <v>861.3320163729491</v>
       </c>
       <c r="T6">
-        <v>1086.796188440247</v>
+        <v>835.3354179448738</v>
       </c>
       <c r="U6">
-        <v>96.54678984251696</v>
+        <v>91.51945035039111</v>
       </c>
       <c r="V6">
-        <v>128.7800435982896</v>
+        <v>118.7123167225513</v>
       </c>
       <c r="W6">
-        <v>297.27324023169</v>
+        <v>268.4151242610591</v>
       </c>
       <c r="X6">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="Y6">
         <v>25</v>
       </c>
       <c r="Z6">
-        <v>0.1069772140412371</v>
+        <v>0.1044163390178405</v>
       </c>
       <c r="AA6">
-        <v>0.1595508283773446</v>
+        <v>0.1459204602451047</v>
       </c>
       <c r="AB6">
-        <v>4180.380617592913</v>
+        <v>4202.865949517392</v>
       </c>
       <c r="AC6">
-        <v>267.7047179920881</v>
+        <v>165.2267682536294</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7">
-        <v>705</v>
+        <v>755</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="H7">
         <v>14</v>
@@ -909,87 +909,87 @@
         <v>43</v>
       </c>
       <c r="J7">
-        <v>379.7907197539203</v>
+        <v>236.4739790560126</v>
       </c>
       <c r="K7">
-        <v>371.5963178477184</v>
+        <v>232.289599833491</v>
       </c>
       <c r="L7">
-        <v>7.638869106201932</v>
+        <v>3.899259222521658</v>
       </c>
       <c r="M7">
-        <v>0.5555327999999999</v>
+        <v>0.28512</v>
       </c>
       <c r="N7">
-        <v>2011.810825001687</v>
+        <v>1876.13960238149</v>
       </c>
       <c r="O7">
-        <v>1.191434190212466</v>
+        <v>1.19419854486302</v>
       </c>
       <c r="P7">
-        <v>68.58100489965915</v>
+        <v>68.70732702022036</v>
       </c>
       <c r="Q7">
-        <v>0.7992553170456789</v>
+        <v>0.6874300659366416</v>
       </c>
       <c r="R7">
-        <v>62.89408201398913</v>
+        <v>57.39968726170045</v>
       </c>
       <c r="S7">
-        <v>736.8413723680504</v>
+        <v>845.4565993178068</v>
       </c>
       <c r="T7">
-        <v>1013.353455145353</v>
+        <v>774.4844062704929</v>
       </c>
       <c r="U7">
-        <v>101.5741293346428</v>
+        <v>91.51945035039111</v>
       </c>
       <c r="V7">
-        <v>133.8982553160798</v>
+        <v>118.7123167225513</v>
       </c>
       <c r="W7">
-        <v>294.2032527990228</v>
+        <v>266.9285229380029</v>
       </c>
       <c r="X7">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="Y7">
         <v>25</v>
       </c>
       <c r="Z7">
-        <v>0.1069576083625279</v>
+        <v>0.1071502969052057</v>
       </c>
       <c r="AA7">
-        <v>0.1571355244640638</v>
+        <v>0.1475733654335974</v>
       </c>
       <c r="AB7">
-        <v>4117.097400781304</v>
+        <v>4140.784016558157</v>
       </c>
       <c r="AC7">
-        <v>270.4886057411459</v>
+        <v>166.9981014362837</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="B8">
         <v>0.25</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="H8">
         <v>14</v>
@@ -998,64 +998,1844 @@
         <v>43</v>
       </c>
       <c r="J8">
-        <v>370.0901693836134</v>
+        <v>239.7170632999158</v>
       </c>
       <c r="K8">
-        <v>362.8694759603121</v>
+        <v>235.5326840773941</v>
       </c>
       <c r="L8">
-        <v>6.730301423301327</v>
+        <v>3.899259222521658</v>
       </c>
       <c r="M8">
-        <v>0.4903920000000001</v>
+        <v>0.28512</v>
       </c>
       <c r="N8">
-        <v>2478.198991322119</v>
+        <v>1822.734645899359</v>
       </c>
       <c r="O8">
-        <v>6.212728190797122</v>
+        <v>1.226410199250794</v>
       </c>
       <c r="P8">
-        <v>99.39642356158103</v>
+        <v>70.17929607029593</v>
       </c>
       <c r="Q8">
-        <v>14.57936917145346</v>
+        <v>0.7005923265946828</v>
       </c>
       <c r="R8">
-        <v>138.8673310036211</v>
+        <v>58.13911708066043</v>
       </c>
       <c r="S8">
-        <v>775.745305566245</v>
+        <v>833.4636143545617</v>
       </c>
       <c r="T8">
-        <v>1315.252565739626</v>
+        <v>730.8357154413512</v>
       </c>
       <c r="U8">
-        <v>96.54678984251696</v>
+        <v>91.51945035039111</v>
       </c>
       <c r="V8">
-        <v>126.8001307858464</v>
+        <v>118.7123167225513</v>
       </c>
       <c r="W8">
-        <v>286.1834287777278</v>
+        <v>265.5649091136784</v>
       </c>
       <c r="X8">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="Y8">
         <v>25</v>
       </c>
       <c r="Z8">
-        <v>0.1077209366951224</v>
+        <v>0.1093956009728216</v>
       </c>
       <c r="AA8">
-        <v>0.1698053465618544</v>
+        <v>0.1490758811506935</v>
       </c>
       <c r="AB8">
-        <v>4417.504958067373</v>
+        <v>4099.838504243348</v>
       </c>
       <c r="AC8">
-        <v>265.1591511644108</v>
+        <v>168.865574305054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9">
+        <v>820</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>1.56</v>
+      </c>
+      <c r="H9">
+        <v>14</v>
+      </c>
+      <c r="I9">
+        <v>43</v>
+      </c>
+      <c r="J9">
+        <v>222.8528755186527</v>
+      </c>
+      <c r="K9">
+        <v>218.9493257549099</v>
+      </c>
+      <c r="L9">
+        <v>3.639069763742796</v>
+      </c>
+      <c r="M9">
+        <v>0.26448</v>
+      </c>
+      <c r="N9">
+        <v>2252.701692427005</v>
+      </c>
+      <c r="O9">
+        <v>0.9933833430484401</v>
+      </c>
+      <c r="P9">
+        <v>62.74234547958474</v>
+      </c>
+      <c r="Q9">
+        <v>0.7212876227514854</v>
+      </c>
+      <c r="R9">
+        <v>59.30173796229437</v>
+      </c>
+      <c r="S9">
+        <v>878.7940540010525</v>
+      </c>
+      <c r="T9">
+        <v>1121.824249263478</v>
+      </c>
+      <c r="U9">
+        <v>81.46477136613942</v>
+      </c>
+      <c r="V9">
+        <v>109.4662906173332</v>
+      </c>
+      <c r="W9">
+        <v>255.2064156250774</v>
+      </c>
+      <c r="X9">
+        <v>0.27</v>
+      </c>
+      <c r="Y9">
+        <v>25</v>
+      </c>
+      <c r="Z9">
+        <v>0.09851815469947954</v>
+      </c>
+      <c r="AA9">
+        <v>0.1514383178592051</v>
+      </c>
+      <c r="AB9">
+        <v>4615.059179687608</v>
+      </c>
+      <c r="AC9">
+        <v>159.036663065515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10">
+        <v>825</v>
+      </c>
+      <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>1.54</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>43</v>
+      </c>
+      <c r="J10">
+        <v>225.5546257261903</v>
+      </c>
+      <c r="K10">
+        <v>221.3923151866175</v>
+      </c>
+      <c r="L10">
+        <v>3.879590539572842</v>
+      </c>
+      <c r="M10">
+        <v>0.28272</v>
+      </c>
+      <c r="N10">
+        <v>2139.656730558018</v>
+      </c>
+      <c r="O10">
+        <v>0.9862712236540688</v>
+      </c>
+      <c r="P10">
+        <v>62.36785953400424</v>
+      </c>
+      <c r="Q10">
+        <v>0.6576640941221754</v>
+      </c>
+      <c r="R10">
+        <v>55.72749372885988</v>
+      </c>
+      <c r="S10">
+        <v>880.7106409935549</v>
+      </c>
+      <c r="T10">
+        <v>1010.871061323355</v>
+      </c>
+      <c r="U10">
+        <v>86.49211085826526</v>
+      </c>
+      <c r="V10">
+        <v>114.5837797337324</v>
+      </c>
+      <c r="W10">
+        <v>263.6225068163453</v>
+      </c>
+      <c r="X10">
+        <v>0.21</v>
+      </c>
+      <c r="Y10">
+        <v>25</v>
+      </c>
+      <c r="Z10">
+        <v>0.09793973261780475</v>
+      </c>
+      <c r="AA10">
+        <v>0.1441754810087398</v>
+      </c>
+      <c r="AB10">
+        <v>4420.516364715302</v>
+      </c>
+      <c r="AC10">
+        <v>160.7031473623119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11">
+        <v>795</v>
+      </c>
+      <c r="B11">
+        <v>0.25</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>1.54</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>228.587494644068</v>
+      </c>
+      <c r="K11">
+        <v>224.4251841044951</v>
+      </c>
+      <c r="L11">
+        <v>3.879590539572842</v>
+      </c>
+      <c r="M11">
+        <v>0.28272</v>
+      </c>
+      <c r="N11">
+        <v>2017.390408067971</v>
+      </c>
+      <c r="O11">
+        <v>1.114036155305761</v>
+      </c>
+      <c r="P11">
+        <v>65.04416352703531</v>
+      </c>
+      <c r="Q11">
+        <v>0.6703419564648202</v>
+      </c>
+      <c r="R11">
+        <v>56.4397110067554</v>
+      </c>
+      <c r="S11">
+        <v>857.8915187666793</v>
+      </c>
+      <c r="T11">
+        <v>907.9561730541091</v>
+      </c>
+      <c r="U11">
+        <v>86.49211085826526</v>
+      </c>
+      <c r="V11">
+        <v>114.5837797337324</v>
+      </c>
+      <c r="W11">
+        <v>262.1624491221322</v>
+      </c>
+      <c r="X11">
+        <v>0.24</v>
+      </c>
+      <c r="Y11">
+        <v>25</v>
+      </c>
+      <c r="Z11">
+        <v>0.1015626006889244</v>
+      </c>
+      <c r="AA11">
+        <v>0.1456227010512458</v>
+      </c>
+      <c r="AB11">
+        <v>4302.529492539827</v>
+      </c>
+      <c r="AC11">
+        <v>162.4446173223002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12">
+        <v>780</v>
+      </c>
+      <c r="B12">
+        <v>0.25</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>1.54</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <v>231.720852792579</v>
+      </c>
+      <c r="K12">
+        <v>227.5585422530062</v>
+      </c>
+      <c r="L12">
+        <v>3.879590539572842</v>
+      </c>
+      <c r="M12">
+        <v>0.28272</v>
+      </c>
+      <c r="N12">
+        <v>1959.328685629051</v>
+      </c>
+      <c r="O12">
+        <v>1.145889858306564</v>
+      </c>
+      <c r="P12">
+        <v>66.49977534948424</v>
+      </c>
+      <c r="Q12">
+        <v>0.6829404857192382</v>
+      </c>
+      <c r="R12">
+        <v>57.14747150837295</v>
+      </c>
+      <c r="S12">
+        <v>846.3799220659979</v>
+      </c>
+      <c r="T12">
+        <v>859.2244763261199</v>
+      </c>
+      <c r="U12">
+        <v>86.49211085826526</v>
+      </c>
+      <c r="V12">
+        <v>114.5837797337324</v>
+      </c>
+      <c r="W12">
+        <v>260.823182954894</v>
+      </c>
+      <c r="X12">
+        <v>0.27</v>
+      </c>
+      <c r="Y12">
+        <v>25</v>
+      </c>
+      <c r="Z12">
+        <v>0.1037829538584741</v>
+      </c>
+      <c r="AA12">
+        <v>0.1470608649585601</v>
+      </c>
+      <c r="AB12">
+        <v>4263.039569649394</v>
+      </c>
+      <c r="AC12">
+        <v>164.2788244236299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13">
+        <v>775</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>1.56</v>
+      </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>43</v>
+      </c>
+      <c r="J13">
+        <v>229.6396785466689</v>
+      </c>
+      <c r="K13">
+        <v>225.477368007096</v>
+      </c>
+      <c r="L13">
+        <v>3.879590539572842</v>
+      </c>
+      <c r="M13">
+        <v>0.28272</v>
+      </c>
+      <c r="N13">
+        <v>1957.274745075648</v>
+      </c>
+      <c r="O13">
+        <v>1.155394304508699</v>
+      </c>
+      <c r="P13">
+        <v>66.93409798560941</v>
+      </c>
+      <c r="Q13">
+        <v>0.6770511829056398</v>
+      </c>
+      <c r="R13">
+        <v>56.81662210291014</v>
+      </c>
+      <c r="S13">
+        <v>860.0752575535778</v>
+      </c>
+      <c r="T13">
+        <v>843.3762872940732</v>
+      </c>
+      <c r="U13">
+        <v>86.49211085826526</v>
+      </c>
+      <c r="V13">
+        <v>114.5837797337324</v>
+      </c>
+      <c r="W13">
+        <v>266.0941478270881</v>
+      </c>
+      <c r="X13">
+        <v>0.21</v>
+      </c>
+      <c r="Y13">
+        <v>25</v>
+      </c>
+      <c r="Z13">
+        <v>0.1044454585364763</v>
+      </c>
+      <c r="AA13">
+        <v>0.1463885815058871</v>
+      </c>
+      <c r="AB13">
+        <v>4216.34898612434</v>
+      </c>
+      <c r="AC13">
+        <v>164.4358683334502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14">
+        <v>755</v>
+      </c>
+      <c r="B14">
+        <v>0.25</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>1.56</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>43</v>
+      </c>
+      <c r="J14">
+        <v>232.7295753136417</v>
+      </c>
+      <c r="K14">
+        <v>228.5672647740689</v>
+      </c>
+      <c r="L14">
+        <v>3.879590539572842</v>
+      </c>
+      <c r="M14">
+        <v>0.28272</v>
+      </c>
+      <c r="N14">
+        <v>1882.617212224446</v>
+      </c>
+      <c r="O14">
+        <v>1.194833836172251</v>
+      </c>
+      <c r="P14">
+        <v>68.73635779068969</v>
+      </c>
+      <c r="Q14">
+        <v>0.6915283804720666</v>
+      </c>
+      <c r="R14">
+        <v>57.62992248144737</v>
+      </c>
+      <c r="S14">
+        <v>844.2249534962078</v>
+      </c>
+      <c r="T14">
+        <v>781.9296623389865</v>
+      </c>
+      <c r="U14">
+        <v>86.49211085826526</v>
+      </c>
+      <c r="V14">
+        <v>114.5837797337324</v>
+      </c>
+      <c r="W14">
+        <v>264.6204010950206</v>
+      </c>
+      <c r="X14">
+        <v>0.24</v>
+      </c>
+      <c r="Y14">
+        <v>25</v>
+      </c>
+      <c r="Z14">
+        <v>0.107194579702468</v>
+      </c>
+      <c r="AA14">
+        <v>0.1480412016330969</v>
+      </c>
+      <c r="AB14">
+        <v>4153.911105254432</v>
+      </c>
+      <c r="AC14">
+        <v>166.227630392342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15">
+        <v>740</v>
+      </c>
+      <c r="B15">
+        <v>0.25</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>1.56</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>43</v>
+      </c>
+      <c r="J15">
+        <v>235.9217810923387</v>
+      </c>
+      <c r="K15">
+        <v>231.7594705527659</v>
+      </c>
+      <c r="L15">
+        <v>3.879590539572842</v>
+      </c>
+      <c r="M15">
+        <v>0.28272</v>
+      </c>
+      <c r="N15">
+        <v>1828.812413666139</v>
+      </c>
+      <c r="O15">
+        <v>1.227211985443923</v>
+      </c>
+      <c r="P15">
+        <v>70.21593512170436</v>
+      </c>
+      <c r="Q15">
+        <v>0.7046963301898179</v>
+      </c>
+      <c r="R15">
+        <v>58.36967190055057</v>
+      </c>
+      <c r="S15">
+        <v>832.2509056711619</v>
+      </c>
+      <c r="T15">
+        <v>737.8540922304441</v>
+      </c>
+      <c r="U15">
+        <v>86.49211085826526</v>
+      </c>
+      <c r="V15">
+        <v>114.5837797337324</v>
+      </c>
+      <c r="W15">
+        <v>263.2685783929736</v>
+      </c>
+      <c r="X15">
+        <v>0.27</v>
+      </c>
+      <c r="Y15">
+        <v>25</v>
+      </c>
+      <c r="Z15">
+        <v>0.1094514892478887</v>
+      </c>
+      <c r="AA15">
+        <v>0.1495443667752311</v>
+      </c>
+      <c r="AB15">
+        <v>4112.722650138298</v>
+      </c>
+      <c r="AC15">
+        <v>168.1138766925355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16">
+        <v>750</v>
+      </c>
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>33</v>
+      </c>
+      <c r="G16">
+        <v>1.54</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>43</v>
+      </c>
+      <c r="J16">
+        <v>241.9765191711099</v>
+      </c>
+      <c r="K16">
+        <v>237.5532694192979</v>
+      </c>
+      <c r="L16">
+        <v>4.122289751811999</v>
+      </c>
+      <c r="M16">
+        <v>0.30096</v>
+      </c>
+      <c r="N16">
+        <v>1776.819019514422</v>
+      </c>
+      <c r="O16">
+        <v>1.202401899337844</v>
+      </c>
+      <c r="P16">
+        <v>69.08219394721445</v>
+      </c>
+      <c r="Q16">
+        <v>0.6615431950743129</v>
+      </c>
+      <c r="R16">
+        <v>55.94541396226707</v>
+      </c>
+      <c r="S16">
+        <v>837.7254355342134</v>
+      </c>
+      <c r="T16">
+        <v>683.9989865688128</v>
+      </c>
+      <c r="U16">
+        <v>91.51945035039111</v>
+      </c>
+      <c r="V16">
+        <v>119.702007366146</v>
+      </c>
+      <c r="W16">
+        <v>270.3977119913393</v>
+      </c>
+      <c r="X16">
+        <v>0.24</v>
+      </c>
+      <c r="Y16">
+        <v>25</v>
+      </c>
+      <c r="Z16">
+        <v>0.1077221093600608</v>
+      </c>
+      <c r="AA16">
+        <v>0.1446182932505129</v>
+      </c>
+      <c r="AB16">
+        <v>4030.993893869297</v>
+      </c>
+      <c r="AC16">
+        <v>171.7549778058505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17">
+        <v>720</v>
+      </c>
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>1.56</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>43</v>
+      </c>
+      <c r="J17">
+        <v>246.3712823621983</v>
+      </c>
+      <c r="K17">
+        <v>241.9480326103863</v>
+      </c>
+      <c r="L17">
+        <v>4.122289751811999</v>
+      </c>
+      <c r="M17">
+        <v>0.30096</v>
+      </c>
+      <c r="N17">
+        <v>1698.083240489645</v>
+      </c>
+      <c r="O17">
+        <v>1.269432872562279</v>
+      </c>
+      <c r="P17">
+        <v>72.14529392944519</v>
+      </c>
+      <c r="Q17">
+        <v>0.6850711751109774</v>
+      </c>
+      <c r="R17">
+        <v>57.26716943201429</v>
+      </c>
+      <c r="S17">
+        <v>830.5042026554289</v>
+      </c>
+      <c r="T17">
+        <v>608.0459668718231</v>
+      </c>
+      <c r="U17">
+        <v>91.51945035039111</v>
+      </c>
+      <c r="V17">
+        <v>119.702007366146</v>
+      </c>
+      <c r="W17">
+        <v>272.9328751769107</v>
+      </c>
+      <c r="X17">
+        <v>0.24</v>
+      </c>
+      <c r="Y17">
+        <v>25</v>
+      </c>
+      <c r="Z17">
+        <v>0.1123944839927094</v>
+      </c>
+      <c r="AA17">
+        <v>0.1473040902207328</v>
+      </c>
+      <c r="AB17">
+        <v>3941.621767762456</v>
+      </c>
+      <c r="AC17">
+        <v>175.7793940701047</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18">
+        <v>705</v>
+      </c>
+      <c r="B18">
+        <v>0.25</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>33</v>
+      </c>
+      <c r="G18">
+        <v>1.56</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>43</v>
+      </c>
+      <c r="J18">
+        <v>249.7445985318644</v>
+      </c>
+      <c r="K18">
+        <v>245.3213487800524</v>
+      </c>
+      <c r="L18">
+        <v>4.122289751811999</v>
+      </c>
+      <c r="M18">
+        <v>0.30096</v>
+      </c>
+      <c r="N18">
+        <v>1652.16630881898</v>
+      </c>
+      <c r="O18">
+        <v>1.300961820896623</v>
+      </c>
+      <c r="P18">
+        <v>73.58606550767249</v>
+      </c>
+      <c r="Q18">
+        <v>0.698839832345285</v>
+      </c>
+      <c r="R18">
+        <v>58.04066541348661</v>
+      </c>
+      <c r="S18">
+        <v>818.1183668053764</v>
+      </c>
+      <c r="T18">
+        <v>572.2711883718259</v>
+      </c>
+      <c r="U18">
+        <v>91.51945035039111</v>
+      </c>
+      <c r="V18">
+        <v>119.702007366146</v>
+      </c>
+      <c r="W18">
+        <v>271.538587906268</v>
+      </c>
+      <c r="X18">
+        <v>0.27</v>
+      </c>
+      <c r="Y18">
+        <v>25</v>
+      </c>
+      <c r="Z18">
+        <v>0.1145922002320101</v>
+      </c>
+      <c r="AA18">
+        <v>0.1488758281186005</v>
+      </c>
+      <c r="AB18">
+        <v>3900.685647480243</v>
+      </c>
+      <c r="AC18">
+        <v>177.7604670425751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19">
+        <v>800</v>
+      </c>
+      <c r="B19">
+        <v>0.25</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>1.54</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <v>225.7486671414554</v>
+      </c>
+      <c r="K19">
+        <v>221.6281043842537</v>
+      </c>
+      <c r="L19">
+        <v>3.842162757201732</v>
+      </c>
+      <c r="M19">
+        <v>0.2784</v>
+      </c>
+      <c r="N19">
+        <v>2052.101541837777</v>
+      </c>
+      <c r="O19">
+        <v>1.02330632558121</v>
+      </c>
+      <c r="P19">
+        <v>64.31792876032128</v>
+      </c>
+      <c r="Q19">
+        <v>0.6757983680046243</v>
+      </c>
+      <c r="R19">
+        <v>56.74624143506625</v>
+      </c>
+      <c r="S19">
+        <v>859.2846283020833</v>
+      </c>
+      <c r="T19">
+        <v>941.7698129383572</v>
+      </c>
+      <c r="U19">
+        <v>81.46477136613942</v>
+      </c>
+      <c r="V19">
+        <v>110.4568832876111</v>
+      </c>
+      <c r="W19">
+        <v>260.3429096984689</v>
+      </c>
+      <c r="X19">
+        <v>0.24</v>
+      </c>
+      <c r="Y19">
+        <v>25</v>
+      </c>
+      <c r="Z19">
+        <v>0.1009517631482102</v>
+      </c>
+      <c r="AA19">
+        <v>0.146245568528991</v>
+      </c>
+      <c r="AB19">
+        <v>4348.108245473504</v>
+      </c>
+      <c r="AC19">
+        <v>162.38034154328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20">
+        <v>780</v>
+      </c>
+      <c r="B20">
+        <v>0.25</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>1.54</v>
+      </c>
+      <c r="H20">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>43</v>
+      </c>
+      <c r="J20">
+        <v>228.8447370421779</v>
+      </c>
+      <c r="K20">
+        <v>224.7241742849761</v>
+      </c>
+      <c r="L20">
+        <v>3.842162757201732</v>
+      </c>
+      <c r="M20">
+        <v>0.2784</v>
+      </c>
+      <c r="N20">
+        <v>1973.014681873379</v>
+      </c>
+      <c r="O20">
+        <v>1.142706655807365</v>
+      </c>
+      <c r="P20">
+        <v>66.35431322877045</v>
+      </c>
+      <c r="Q20">
+        <v>0.6878439719335162</v>
+      </c>
+      <c r="R20">
+        <v>57.42293968347563</v>
+      </c>
+      <c r="S20">
+        <v>843.9981137342279</v>
+      </c>
+      <c r="T20">
+        <v>875.1605545641145</v>
+      </c>
+      <c r="U20">
+        <v>81.46477136613942</v>
+      </c>
+      <c r="V20">
+        <v>110.4568832876111</v>
+      </c>
+      <c r="W20">
+        <v>259.0129387128947</v>
+      </c>
+      <c r="X20">
+        <v>0.27</v>
+      </c>
+      <c r="Y20">
+        <v>25</v>
+      </c>
+      <c r="Z20">
+        <v>0.1035610696474535</v>
+      </c>
+      <c r="AA20">
+        <v>0.1476206141761852</v>
+      </c>
+      <c r="AB20">
+        <v>4279.26572923637</v>
+      </c>
+      <c r="AC20">
+        <v>164.2419858914608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21">
+        <v>755</v>
+      </c>
+      <c r="B21">
+        <v>0.25</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>1.56</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>43</v>
+      </c>
+      <c r="J21">
+        <v>229.835925899319</v>
+      </c>
+      <c r="K21">
+        <v>225.7153631421173</v>
+      </c>
+      <c r="L21">
+        <v>3.842162757201732</v>
+      </c>
+      <c r="M21">
+        <v>0.2784</v>
+      </c>
+      <c r="N21">
+        <v>1894.892842785426</v>
+      </c>
+      <c r="O21">
+        <v>1.192259855901435</v>
+      </c>
+      <c r="P21">
+        <v>68.61873516725859</v>
+      </c>
+      <c r="Q21">
+        <v>0.6963245474892905</v>
+      </c>
+      <c r="R21">
+        <v>57.89936167592808</v>
+      </c>
+      <c r="S21">
+        <v>841.8678614484824</v>
+      </c>
+      <c r="T21">
+        <v>796.4083461898965</v>
+      </c>
+      <c r="U21">
+        <v>81.46477136613942</v>
+      </c>
+      <c r="V21">
+        <v>110.4568832876111</v>
+      </c>
+      <c r="W21">
+        <v>262.7838022468245</v>
+      </c>
+      <c r="X21">
+        <v>0.24</v>
+      </c>
+      <c r="Y21">
+        <v>25</v>
+      </c>
+      <c r="Z21">
+        <v>0.107015161150957</v>
+      </c>
+      <c r="AA21">
+        <v>0.1485887000083699</v>
+      </c>
+      <c r="AB21">
+        <v>4169.27344733263</v>
+      </c>
+      <c r="AC21">
+        <v>166.1110248115812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22">
+        <v>740</v>
+      </c>
+      <c r="B22">
+        <v>0.25</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>29</v>
+      </c>
+      <c r="G22">
+        <v>1.56</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>43</v>
+      </c>
+      <c r="J22">
+        <v>232.9900763265495</v>
+      </c>
+      <c r="K22">
+        <v>228.8695135693478</v>
+      </c>
+      <c r="L22">
+        <v>3.842162757201732</v>
+      </c>
+      <c r="M22">
+        <v>0.2784</v>
+      </c>
+      <c r="N22">
+        <v>1840.304185357848</v>
+      </c>
+      <c r="O22">
+        <v>1.224882206379757</v>
+      </c>
+      <c r="P22">
+        <v>70.10947170834834</v>
+      </c>
+      <c r="Q22">
+        <v>0.7094707001668406</v>
+      </c>
+      <c r="R22">
+        <v>58.63788658034427</v>
+      </c>
+      <c r="S22">
+        <v>829.9300533096224</v>
+      </c>
+      <c r="T22">
+        <v>751.5025204263419</v>
+      </c>
+      <c r="U22">
+        <v>81.46477136613942</v>
+      </c>
+      <c r="V22">
+        <v>110.4568832876111</v>
+      </c>
+      <c r="W22">
+        <v>261.4413618751166</v>
+      </c>
+      <c r="X22">
+        <v>0.27</v>
+      </c>
+      <c r="Y22">
+        <v>25</v>
+      </c>
+      <c r="Z22">
+        <v>0.1092890926709714</v>
+      </c>
+      <c r="AA22">
+        <v>0.1500893769460581</v>
+      </c>
+      <c r="AB22">
+        <v>4127.711350297663</v>
+      </c>
+      <c r="AC22">
+        <v>168.0239885088901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23">
+        <v>750</v>
+      </c>
+      <c r="B23">
+        <v>0.25</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>31</v>
+      </c>
+      <c r="G23">
+        <v>1.54</v>
+      </c>
+      <c r="H23">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>43</v>
+      </c>
+      <c r="J23">
+        <v>238.5198676636323</v>
+      </c>
+      <c r="K23">
+        <v>234.1285178916205</v>
+      </c>
+      <c r="L23">
+        <v>4.093749772011823</v>
+      </c>
+      <c r="M23">
+        <v>0.2976</v>
+      </c>
+      <c r="N23">
+        <v>1784.378883841034</v>
+      </c>
+      <c r="O23">
+        <v>1.202134867247244</v>
+      </c>
+      <c r="P23">
+        <v>69.06999143914054</v>
+      </c>
+      <c r="Q23">
+        <v>0.6655921645459609</v>
+      </c>
+      <c r="R23">
+        <v>56.17287707374754</v>
+      </c>
+      <c r="S23">
+        <v>836.0457501605094</v>
+      </c>
+      <c r="T23">
+        <v>693.0194937283409</v>
+      </c>
+      <c r="U23">
+        <v>86.49211085826526</v>
+      </c>
+      <c r="V23">
+        <v>115.5739959036835</v>
+      </c>
+      <c r="W23">
+        <v>268.2768752009471</v>
+      </c>
+      <c r="X23">
+        <v>0.24</v>
+      </c>
+      <c r="Y23">
+        <v>25</v>
+      </c>
+      <c r="Z23">
+        <v>0.1077034959652941</v>
+      </c>
+      <c r="AA23">
+        <v>0.1450804965472906</v>
+      </c>
+      <c r="AB23">
+        <v>4043.877040428147</v>
+      </c>
+      <c r="AC23">
+        <v>171.2547309330948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24">
+        <v>720</v>
+      </c>
+      <c r="B24">
+        <v>0.25</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>31</v>
+      </c>
+      <c r="G24">
+        <v>1.56</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>43</v>
+      </c>
+      <c r="J24">
+        <v>242.8488434596154</v>
+      </c>
+      <c r="K24">
+        <v>238.4574936876036</v>
+      </c>
+      <c r="L24">
+        <v>4.093749772011823</v>
+      </c>
+      <c r="M24">
+        <v>0.2976</v>
+      </c>
+      <c r="N24">
+        <v>1704.673153107206</v>
+      </c>
+      <c r="O24">
+        <v>1.269650634719363</v>
+      </c>
+      <c r="P24">
+        <v>72.15524495995251</v>
+      </c>
+      <c r="Q24">
+        <v>0.6891013468217999</v>
+      </c>
+      <c r="R24">
+        <v>57.49357652240195</v>
+      </c>
+      <c r="S24">
+        <v>828.8526117270909</v>
+      </c>
+      <c r="T24">
+        <v>616.04686436296</v>
+      </c>
+      <c r="U24">
+        <v>86.49211085826526</v>
+      </c>
+      <c r="V24">
+        <v>115.5739959036835</v>
+      </c>
+      <c r="W24">
+        <v>270.7921540934377</v>
+      </c>
+      <c r="X24">
+        <v>0.24</v>
+      </c>
+      <c r="Y24">
+        <v>25</v>
+      </c>
+      <c r="Z24">
+        <v>0.1124096630409875</v>
+      </c>
+      <c r="AA24">
+        <v>0.1477641476907547</v>
+      </c>
+      <c r="AB24">
+        <v>3953.93216956829</v>
+      </c>
+      <c r="AC24">
+        <v>175.2162645804754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25">
+        <v>705</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>1.56</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>43</v>
+      </c>
+      <c r="J25">
+        <v>246.1748425522864</v>
+      </c>
+      <c r="K25">
+        <v>241.7834927802746</v>
+      </c>
+      <c r="L25">
+        <v>4.093749772011823</v>
+      </c>
+      <c r="M25">
+        <v>0.2976</v>
+      </c>
+      <c r="N25">
+        <v>1658.312083847897</v>
+      </c>
+      <c r="O25">
+        <v>1.30136705972819</v>
+      </c>
+      <c r="P25">
+        <v>73.60458361949546</v>
+      </c>
+      <c r="Q25">
+        <v>0.7028720589419569</v>
+      </c>
+      <c r="R25">
+        <v>58.26718794330455</v>
+      </c>
+      <c r="S25">
+        <v>816.4934247291565</v>
+      </c>
+      <c r="T25">
+        <v>579.7924273698933</v>
+      </c>
+      <c r="U25">
+        <v>86.49211085826526</v>
+      </c>
+      <c r="V25">
+        <v>115.5739959036835</v>
+      </c>
+      <c r="W25">
+        <v>269.4088027723569</v>
+      </c>
+      <c r="X25">
+        <v>0.27</v>
+      </c>
+      <c r="Y25">
+        <v>25</v>
+      </c>
+      <c r="Z25">
+        <v>0.1146204472877471</v>
+      </c>
+      <c r="AA25">
+        <v>0.1493361201606587</v>
+      </c>
+      <c r="AB25">
+        <v>3912.745728588074</v>
+      </c>
+      <c r="AC25">
+        <v>177.21920867899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26">
+        <v>775</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>33</v>
+      </c>
+      <c r="G26">
+        <v>1.5</v>
+      </c>
+      <c r="H26">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>43</v>
+      </c>
+      <c r="J26">
+        <v>246.2561102264708</v>
+      </c>
+      <c r="K26">
+        <v>241.5917957524344</v>
+      </c>
+      <c r="L26">
+        <v>4.347514474036384</v>
+      </c>
+      <c r="M26">
+        <v>0.3168</v>
+      </c>
+      <c r="N26">
+        <v>1766.648026572369</v>
+      </c>
+      <c r="O26">
+        <v>1.155542013542127</v>
+      </c>
+      <c r="P26">
+        <v>66.94084781357554</v>
+      </c>
+      <c r="Q26">
+        <v>0.6264951050170129</v>
+      </c>
+      <c r="R26">
+        <v>53.97648145445128</v>
+      </c>
+      <c r="S26">
+        <v>835.5726104598901</v>
+      </c>
+      <c r="T26">
+        <v>680.1360150738299</v>
+      </c>
+      <c r="U26">
+        <v>91.51945035039111</v>
+      </c>
+      <c r="V26">
+        <v>120.6918737927216</v>
+      </c>
+      <c r="W26">
+        <v>269.8334045936249</v>
+      </c>
+      <c r="X26">
+        <v>0.27</v>
+      </c>
+      <c r="Y26">
+        <v>25</v>
+      </c>
+      <c r="Z26">
+        <v>0.1044557545519987</v>
+      </c>
+      <c r="AA26">
+        <v>0.1406174375059399</v>
+      </c>
+      <c r="AB26">
+        <v>4050.125931684972</v>
+      </c>
+      <c r="AC26">
+        <v>174.2860407288592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27">
+        <v>725</v>
+      </c>
+      <c r="B27">
+        <v>0.25</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>1.54</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <v>43</v>
+      </c>
+      <c r="J27">
+        <v>252.042046675377</v>
+      </c>
+      <c r="K27">
+        <v>247.3777322013406</v>
+      </c>
+      <c r="L27">
+        <v>4.347514474036384</v>
+      </c>
+      <c r="M27">
+        <v>0.3168</v>
+      </c>
+      <c r="N27">
+        <v>1649.420339224242</v>
+      </c>
+      <c r="O27">
+        <v>1.260655928733709</v>
+      </c>
+      <c r="P27">
+        <v>71.7442158129852</v>
+      </c>
+      <c r="Q27">
+        <v>0.6611183461969216</v>
+      </c>
+      <c r="R27">
+        <v>55.9215467910678</v>
+      </c>
+      <c r="S27">
+        <v>830.3766062689128</v>
+      </c>
+      <c r="T27">
+        <v>561.284437043205</v>
+      </c>
+      <c r="U27">
+        <v>91.51945035039111</v>
+      </c>
+      <c r="V27">
+        <v>120.6918737927216</v>
+      </c>
+      <c r="W27">
+        <v>276.4305428047423</v>
+      </c>
+      <c r="X27">
+        <v>0.24</v>
+      </c>
+      <c r="Y27">
+        <v>25</v>
+      </c>
+      <c r="Z27">
+        <v>0.1117826896575818</v>
+      </c>
+      <c r="AA27">
+        <v>0.1445697953418136</v>
+      </c>
+      <c r="AB27">
+        <v>3895.320692311011</v>
+      </c>
+      <c r="AC27">
+        <v>180.6981401790794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28">
+        <v>710</v>
+      </c>
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>33</v>
+      </c>
+      <c r="G28">
+        <v>1.54</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
+      <c r="I28">
+        <v>43</v>
+      </c>
+      <c r="J28">
+        <v>255.4854570562588</v>
+      </c>
+      <c r="K28">
+        <v>250.8211425822225</v>
+      </c>
+      <c r="L28">
+        <v>4.347514474036384</v>
+      </c>
+      <c r="M28">
+        <v>0.3168</v>
+      </c>
+      <c r="N28">
+        <v>1606.473520377083</v>
+      </c>
+      <c r="O28">
+        <v>1.288767969296014</v>
+      </c>
+      <c r="P28">
+        <v>73.028845690856</v>
+      </c>
+      <c r="Q28">
+        <v>0.6748655841600327</v>
+      </c>
+      <c r="R28">
+        <v>56.69383948017002</v>
+      </c>
+      <c r="S28">
+        <v>818.0928780744317</v>
+      </c>
+      <c r="T28">
+        <v>528.538982857806</v>
+      </c>
+      <c r="U28">
+        <v>91.51945035039111</v>
+      </c>
+      <c r="V28">
+        <v>120.6918737927216</v>
+      </c>
+      <c r="W28">
+        <v>275.0183875750008</v>
+      </c>
+      <c r="X28">
+        <v>0.27</v>
+      </c>
+      <c r="Y28">
+        <v>25</v>
+      </c>
+      <c r="Z28">
+        <v>0.1137422313273038</v>
+      </c>
+      <c r="AA28">
+        <v>0.1461390881588203</v>
+      </c>
+      <c r="AB28">
+        <v>3856.136396358574</v>
+      </c>
+      <c r="AC28">
+        <v>182.7396189595362</v>
       </c>
     </row>
   </sheetData>

--- a/Codemig/System/Optimization_Rotor.xlsx
+++ b/Codemig/System/Optimization_Rotor.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Optimizationf=5.0Hz-dp=0.0006mm" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -340,369 +340,381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AD51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="B1">
         <v>0.25</v>
       </c>
       <c r="C1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>33</v>
       </c>
       <c r="G1">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1">
-        <v>226.9249736884597</v>
+        <v>186.2958196550828</v>
       </c>
       <c r="K1">
-        <v>222.9772709307958</v>
+        <v>181.1396429025264</v>
       </c>
       <c r="L1">
-        <v>3.678422757663911</v>
+        <v>4.807696752556346</v>
       </c>
       <c r="M1">
-        <v>0.26928</v>
+        <v>0.34848</v>
       </c>
       <c r="N1">
-        <v>2523.309340294929</v>
+        <v>2763.916149341948</v>
       </c>
       <c r="O1">
-        <v>0.909924020296354</v>
+        <v>0.8880080907316548</v>
       </c>
       <c r="P1">
-        <v>58.34782653730444</v>
+        <v>57.19385158958244</v>
       </c>
       <c r="Q1">
-        <v>0.7070386542579759</v>
+        <v>0.890268772315381</v>
       </c>
       <c r="R1">
-        <v>58.50125904250596</v>
+        <v>67.68742580673944</v>
       </c>
       <c r="S1">
-        <v>926.783410643398</v>
+        <v>752.0197128848135</v>
       </c>
       <c r="T1">
-        <v>1349.572956568764</v>
+        <v>1756.82584997411</v>
       </c>
       <c r="U1">
-        <v>91.51945035039111</v>
+        <v>85.97844111220235</v>
       </c>
       <c r="V1">
-        <v>117.7228064512749</v>
+        <v>111.2318348514816</v>
       </c>
       <c r="W1">
-        <v>261.0087216548144</v>
+        <v>219.971521456567</v>
       </c>
       <c r="X1">
-        <v>0.24</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="Y1">
         <v>25</v>
       </c>
       <c r="Z1">
-        <v>0.09173048529679272</v>
+        <v>0.08994808304821911</v>
       </c>
       <c r="AA1">
-        <v>0.1498117508377698</v>
+        <v>0.1662254007451477</v>
       </c>
       <c r="AB1">
-        <v>4899.550032199019</v>
+        <v>4621.672863427825</v>
       </c>
       <c r="AC1">
-        <v>158.5505611299104</v>
+        <v>118.5469400358161</v>
+      </c>
+      <c r="AD1">
+        <v>924645.1841969002</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2">
-        <v>880</v>
+        <v>820</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2">
-        <v>222.9783314417133</v>
+        <v>188.05469606897</v>
       </c>
       <c r="K2">
-        <v>219.0428659945924</v>
+        <v>182.8985193164137</v>
       </c>
       <c r="L2">
-        <v>3.667625447120861</v>
+        <v>4.807696752556346</v>
       </c>
       <c r="M2">
-        <v>0.26784</v>
+        <v>0.34848</v>
       </c>
       <c r="N2">
-        <v>2530.353371764046</v>
+        <v>2548.380378909108</v>
       </c>
       <c r="O2">
-        <v>0.9099586206777776</v>
+        <v>0.9356434148453787</v>
       </c>
       <c r="P2">
-        <v>58.34964840724733</v>
+        <v>59.70207148924835</v>
       </c>
       <c r="Q2">
-        <v>0.7111741232305254</v>
+        <v>0.8848182237524955</v>
       </c>
       <c r="R2">
-        <v>58.73358152518061</v>
+        <v>67.40036546996208</v>
       </c>
       <c r="S2">
-        <v>925.9880874612182</v>
+        <v>730.3002390152747</v>
       </c>
       <c r="T2">
-        <v>1357.173996798088</v>
+        <v>1560.83260654123</v>
       </c>
       <c r="U2">
-        <v>86.49211085826526</v>
+        <v>85.97844111220235</v>
       </c>
       <c r="V2">
-        <v>113.5937412377282</v>
+        <v>111.2318348514816</v>
       </c>
       <c r="W2">
-        <v>258.5386546161691</v>
+        <v>219.3029333507912</v>
       </c>
       <c r="X2">
-        <v>0.24</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="Y2">
         <v>25</v>
       </c>
       <c r="Z2">
-        <v>0.09173329931376009</v>
+        <v>0.09382221982901047</v>
       </c>
       <c r="AA2">
-        <v>0.1502838283395189</v>
+        <v>0.1656810327508346</v>
       </c>
       <c r="AB2">
-        <v>4914.989190515779</v>
+        <v>4417.965737917017</v>
       </c>
       <c r="AC2">
-        <v>157.5916778206069</v>
+        <v>119.4318738037378</v>
+      </c>
+      <c r="AD2">
+        <v>856554.4791994557</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="A3">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>33</v>
       </c>
       <c r="G3">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3">
-        <v>229.1814010559893</v>
+        <v>189.841268667753</v>
       </c>
       <c r="K3">
-        <v>224.9970218334677</v>
+        <v>184.6850919151967</v>
       </c>
       <c r="L3">
-        <v>3.899259222521658</v>
+        <v>4.807696752556346</v>
       </c>
       <c r="M3">
-        <v>0.28512</v>
+        <v>0.34848</v>
       </c>
       <c r="N3">
-        <v>2110.080457768803</v>
+        <v>2432.256564088217</v>
       </c>
       <c r="O3">
-        <v>0.9929145966552984</v>
+        <v>0.9653142144409323</v>
       </c>
       <c r="P3">
-        <v>62.71766381628026</v>
+        <v>61.26437617320295</v>
       </c>
       <c r="Q3">
-        <v>0.6529455547829409</v>
+        <v>0.8857948161931108</v>
       </c>
       <c r="R3">
-        <v>55.46241550407682</v>
+        <v>67.45179900030547</v>
       </c>
       <c r="S3">
-        <v>878.219477460288</v>
+        <v>717.7529758565024</v>
       </c>
       <c r="T3">
-        <v>983.710406081924</v>
+        <v>1455.652478319209</v>
       </c>
       <c r="U3">
-        <v>91.51945035039111</v>
+        <v>85.97844111220235</v>
       </c>
       <c r="V3">
-        <v>118.7123167225513</v>
+        <v>111.2318348514816</v>
       </c>
       <c r="W3">
-        <v>265.9219246381257</v>
+        <v>218.669747658166</v>
       </c>
       <c r="X3">
-        <v>0.21</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="Y3">
         <v>25</v>
       </c>
       <c r="Z3">
-        <v>0.09848003198957211</v>
+        <v>0.09623531847307966</v>
       </c>
       <c r="AA3">
-        <v>0.1436368440904226</v>
+        <v>0.1657785689276112</v>
       </c>
       <c r="AB3">
-        <v>4377.310480146547</v>
+        <v>4312.747890492798</v>
       </c>
       <c r="AC3">
-        <v>161.4286468147637</v>
+        <v>120.341959419853</v>
+      </c>
+      <c r="AD3">
+        <v>818804.519054555</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:30">
       <c r="A4">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>33</v>
       </c>
       <c r="G4">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4">
-        <v>232.2624848311091</v>
+        <v>191.6532495931716</v>
       </c>
       <c r="K4">
-        <v>228.0781056085874</v>
+        <v>186.4970728406152</v>
       </c>
       <c r="L4">
-        <v>3.899259222521658</v>
+        <v>4.807696752556346</v>
       </c>
       <c r="M4">
-        <v>0.28512</v>
+        <v>0.34848</v>
       </c>
       <c r="N4">
-        <v>2009.74477300205</v>
+        <v>2320.7845495341</v>
       </c>
       <c r="O4">
-        <v>1.113939328957619</v>
+        <v>0.9943229964039302</v>
       </c>
       <c r="P4">
-        <v>65.03973887420685</v>
+        <v>62.7918225701447</v>
       </c>
       <c r="Q4">
-        <v>0.6662025359656205</v>
+        <v>0.8861817267205268</v>
       </c>
       <c r="R4">
-        <v>56.20716653511462</v>
+        <v>67.47217615409491</v>
       </c>
       <c r="S4">
-        <v>859.1545075749098</v>
+        <v>705.1028736932223</v>
       </c>
       <c r="T4">
-        <v>899.288754551274</v>
+        <v>1355.288962358464</v>
       </c>
       <c r="U4">
-        <v>91.51945035039111</v>
+        <v>85.97844111220235</v>
       </c>
       <c r="V4">
-        <v>118.7123167225513</v>
+        <v>111.2318348514816</v>
       </c>
       <c r="W4">
-        <v>264.4491317540251</v>
+        <v>218.0691919107882</v>
       </c>
       <c r="X4">
-        <v>0.24</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="Y4">
         <v>25</v>
       </c>
       <c r="Z4">
-        <v>0.1015558514362869</v>
+        <v>0.09859457583638641</v>
       </c>
       <c r="AA4">
-        <v>0.1451501724696212</v>
+        <v>0.1658172112230349</v>
       </c>
       <c r="AB4">
-        <v>4288.568289074768</v>
+        <v>4205.909344749287</v>
       </c>
       <c r="AC4">
-        <v>163.1488067378768</v>
+        <v>121.2751116069415</v>
+      </c>
+      <c r="AD4">
+        <v>781897.4782837294</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:30">
       <c r="A5">
         <v>780</v>
       </c>
@@ -710,266 +722,275 @@
         <v>0.25</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>235.4457502877207</v>
+        <v>192.1357749667787</v>
       </c>
       <c r="K5">
-        <v>231.261371065199</v>
+        <v>186.8277420723167</v>
       </c>
       <c r="L5">
-        <v>3.899259222521658</v>
+        <v>4.948992894462019</v>
       </c>
       <c r="M5">
-        <v>0.28512</v>
+        <v>0.35904</v>
       </c>
       <c r="N5">
-        <v>1952.129687016253</v>
+        <v>2255.367690080676</v>
       </c>
       <c r="O5">
-        <v>1.145629435596934</v>
+        <v>0.9964553888823136</v>
       </c>
       <c r="P5">
-        <v>66.48787486887254</v>
+        <v>62.90410288622716</v>
       </c>
       <c r="Q5">
-        <v>0.6787985335763488</v>
+        <v>0.8467923414206689</v>
       </c>
       <c r="R5">
-        <v>56.91478481398762</v>
+        <v>65.39768216891625</v>
       </c>
       <c r="S5">
-        <v>847.6244888190985</v>
+        <v>711.1973994681609</v>
       </c>
       <c r="T5">
-        <v>851.0299005100713</v>
+        <v>1285.777047792019</v>
       </c>
       <c r="U5">
-        <v>91.51945035039111</v>
+        <v>88.49211085826526</v>
       </c>
       <c r="V5">
-        <v>118.7123167225513</v>
+        <v>113.7922473247371</v>
       </c>
       <c r="W5">
-        <v>263.0981839874795</v>
+        <v>223.7502816598295</v>
       </c>
       <c r="X5">
-        <v>0.27</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="Y5">
         <v>25</v>
       </c>
       <c r="Z5">
-        <v>0.1037648011686993</v>
+        <v>0.09876800134120432</v>
       </c>
       <c r="AA5">
-        <v>0.1465880473814101</v>
+        <v>0.1618832364266418</v>
       </c>
       <c r="AB5">
-        <v>4249.333407638284</v>
+        <v>4106.125123098724</v>
       </c>
       <c r="AC5">
-        <v>164.9633286364582</v>
+        <v>122.1695599945521</v>
+      </c>
+      <c r="AD5">
+        <v>741794.4506492415</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:30">
       <c r="A6">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>233.3349275193326</v>
+        <v>193.948281382862</v>
       </c>
       <c r="K6">
-        <v>229.1505482968109</v>
+        <v>188.6402484884</v>
       </c>
       <c r="L6">
-        <v>3.899259222521658</v>
+        <v>4.948992894462019</v>
       </c>
       <c r="M6">
-        <v>0.28512</v>
+        <v>0.35904</v>
       </c>
       <c r="N6">
-        <v>1950.236650394199</v>
+        <v>2178.866029652938</v>
       </c>
       <c r="O6">
-        <v>1.154976549121461</v>
+        <v>1.020251220889773</v>
       </c>
       <c r="P6">
-        <v>66.91500790743105</v>
+        <v>64.15706338309971</v>
       </c>
       <c r="Q6">
-        <v>0.6729503711910729</v>
+        <v>0.8517741246183317</v>
       </c>
       <c r="R6">
-        <v>56.58624659656893</v>
+        <v>65.66005435879282</v>
       </c>
       <c r="S6">
-        <v>861.3320163729491</v>
+        <v>701.5499639776079</v>
       </c>
       <c r="T6">
-        <v>835.3354179448738</v>
+        <v>1217.402434169523</v>
       </c>
       <c r="U6">
-        <v>91.51945035039111</v>
+        <v>88.49211085826526</v>
       </c>
       <c r="V6">
-        <v>118.7123167225513</v>
+        <v>113.7922473247371</v>
       </c>
       <c r="W6">
-        <v>268.4151242610591</v>
+        <v>223.0702082758242</v>
       </c>
       <c r="X6">
-        <v>0.21</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="Y6">
         <v>25</v>
       </c>
       <c r="Z6">
-        <v>0.1044163390178405</v>
+        <v>0.1007032943139055</v>
       </c>
       <c r="AA6">
-        <v>0.1459204602451047</v>
+        <v>0.1623807869568546</v>
       </c>
       <c r="AB6">
-        <v>4202.865949517392</v>
+        <v>4039.538718086324</v>
       </c>
       <c r="AC6">
-        <v>165.2267682536294</v>
+        <v>123.0775165499213</v>
+      </c>
+      <c r="AD6">
+        <v>716119.0789232488</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7">
-        <v>236.4739790560126</v>
+        <v>195.7893992510848</v>
       </c>
       <c r="K7">
-        <v>232.289599833491</v>
+        <v>190.4813663566228</v>
       </c>
       <c r="L7">
-        <v>3.899259222521658</v>
+        <v>4.948992894462019</v>
       </c>
       <c r="M7">
-        <v>0.28512</v>
+        <v>0.35904</v>
       </c>
       <c r="N7">
-        <v>1876.13960238149</v>
+        <v>2105.111021957613</v>
       </c>
       <c r="O7">
-        <v>1.19419854486302</v>
+        <v>1.128712289111698</v>
       </c>
       <c r="P7">
-        <v>68.70732702022036</v>
+        <v>65.71481566048507</v>
       </c>
       <c r="Q7">
-        <v>0.6874300659366416</v>
+        <v>0.8559924259908869</v>
       </c>
       <c r="R7">
-        <v>57.39968726170045</v>
+        <v>65.88221677027549</v>
       </c>
       <c r="S7">
-        <v>845.4565993178068</v>
+        <v>691.8409706422258</v>
       </c>
       <c r="T7">
-        <v>774.4844062704929</v>
+        <v>1151.485269762022</v>
       </c>
       <c r="U7">
-        <v>91.51945035039111</v>
+        <v>88.49211085826526</v>
       </c>
       <c r="V7">
-        <v>118.7123167225513</v>
+        <v>113.7922473247371</v>
       </c>
       <c r="W7">
-        <v>266.9285229380029</v>
+        <v>222.426145462012</v>
       </c>
       <c r="X7">
-        <v>0.24</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="Y7">
         <v>25</v>
       </c>
       <c r="Z7">
-        <v>0.1071502969052057</v>
+        <v>0.1025855963579656</v>
       </c>
       <c r="AA7">
-        <v>0.1475733654335974</v>
+        <v>0.1628020855162734</v>
       </c>
       <c r="AB7">
-        <v>4140.784016558157</v>
+        <v>3970.607197337312</v>
       </c>
       <c r="AC7">
-        <v>166.9981014362837</v>
+        <v>124.0114965130777</v>
+      </c>
+      <c r="AD7">
+        <v>690891.1618572129</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:30">
       <c r="A8">
         <v>740</v>
       </c>
@@ -977,800 +998,827 @@
         <v>0.25</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8">
-        <v>239.7170632999158</v>
+        <v>197.6567649743278</v>
       </c>
       <c r="K8">
-        <v>235.5326840773941</v>
+        <v>192.3487320798658</v>
       </c>
       <c r="L8">
-        <v>3.899259222521658</v>
+        <v>4.948992894462019</v>
       </c>
       <c r="M8">
-        <v>0.28512</v>
+        <v>0.35904</v>
       </c>
       <c r="N8">
-        <v>1822.734645899359</v>
+        <v>2057.210488998179</v>
       </c>
       <c r="O8">
-        <v>1.226410199250794</v>
+        <v>1.148863893735528</v>
       </c>
       <c r="P8">
-        <v>70.17929607029593</v>
+        <v>66.63567920752777</v>
       </c>
       <c r="Q8">
-        <v>0.7005923265946828</v>
+        <v>0.8612253415145164</v>
       </c>
       <c r="R8">
-        <v>58.13911708066043</v>
+        <v>66.1578151756854</v>
       </c>
       <c r="S8">
-        <v>833.4636143545617</v>
+        <v>685.3333584252503</v>
       </c>
       <c r="T8">
-        <v>730.8357154413512</v>
+        <v>1108.883646527822</v>
       </c>
       <c r="U8">
-        <v>91.51945035039111</v>
+        <v>88.49211085826526</v>
       </c>
       <c r="V8">
-        <v>118.7123167225513</v>
+        <v>113.7922473247371</v>
       </c>
       <c r="W8">
-        <v>265.5649091136784</v>
+        <v>221.8152731239092</v>
       </c>
       <c r="X8">
-        <v>0.27</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="Y8">
         <v>25</v>
       </c>
       <c r="Z8">
-        <v>0.1093956009728216</v>
+        <v>0.1039902581392633</v>
       </c>
       <c r="AA8">
-        <v>0.1490758811506935</v>
+        <v>0.1633247176321315</v>
       </c>
       <c r="AB8">
-        <v>4099.838504243348</v>
+        <v>3930.242375661442</v>
       </c>
       <c r="AC8">
-        <v>168.865574305054</v>
+        <v>124.9693423479616</v>
+      </c>
+      <c r="AD8">
+        <v>674321.1364020538</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:30">
       <c r="A9">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B9">
         <v>0.25</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9">
-        <v>222.8528755186527</v>
+        <v>186.5878752650983</v>
       </c>
       <c r="K9">
-        <v>218.9493257549099</v>
+        <v>181.4791661368194</v>
       </c>
       <c r="L9">
-        <v>3.639069763742796</v>
+        <v>4.764981128278881</v>
       </c>
       <c r="M9">
-        <v>0.26448</v>
+        <v>0.343728</v>
       </c>
       <c r="N9">
-        <v>2252.701692427005</v>
+        <v>2513.216745479844</v>
       </c>
       <c r="O9">
-        <v>0.9933833430484401</v>
+        <v>0.949265377135138</v>
       </c>
       <c r="P9">
-        <v>62.74234547958474</v>
+        <v>60.41933074009555</v>
       </c>
       <c r="Q9">
-        <v>0.7212876227514854</v>
+        <v>0.8986323747771003</v>
       </c>
       <c r="R9">
-        <v>59.30173796229437</v>
+        <v>68.12790597339298</v>
       </c>
       <c r="S9">
-        <v>878.7940540010525</v>
+        <v>722.114612466479</v>
       </c>
       <c r="T9">
-        <v>1121.824249263478</v>
+        <v>1532.403464721538</v>
       </c>
       <c r="U9">
-        <v>81.46477136613942</v>
+        <v>80.9511016200765</v>
       </c>
       <c r="V9">
-        <v>109.4662906173332</v>
+        <v>107.1003402850223</v>
       </c>
       <c r="W9">
-        <v>255.2064156250774</v>
+        <v>216.5944701579555</v>
       </c>
       <c r="X9">
-        <v>0.27</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="Y9">
         <v>25</v>
       </c>
       <c r="Z9">
-        <v>0.09851815469947954</v>
+        <v>0.09493008140264686</v>
       </c>
       <c r="AA9">
-        <v>0.1514383178592051</v>
+        <v>0.1670607070349255</v>
       </c>
       <c r="AB9">
-        <v>4615.059179687608</v>
+        <v>4400.429141512049</v>
       </c>
       <c r="AC9">
-        <v>159.036663065515</v>
+        <v>120.3376954872158</v>
+      </c>
+      <c r="AD9">
+        <v>851335.2581786324</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:30">
       <c r="A10">
-        <v>825</v>
+        <v>800</v>
       </c>
       <c r="B10">
         <v>0.25</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10">
-        <v>225.5546257261903</v>
+        <v>186.941123250524</v>
       </c>
       <c r="K10">
-        <v>221.3923151866175</v>
+        <v>181.6751537025086</v>
       </c>
       <c r="L10">
-        <v>3.879590539572842</v>
+        <v>4.911153548015446</v>
       </c>
       <c r="M10">
-        <v>0.28272</v>
+        <v>0.354816</v>
       </c>
       <c r="N10">
-        <v>2139.656730558018</v>
+        <v>2379.437023077394</v>
       </c>
       <c r="O10">
-        <v>0.9862712236540688</v>
+        <v>0.9636666056360186</v>
       </c>
       <c r="P10">
-        <v>62.36785953400424</v>
+        <v>61.1776219573298</v>
       </c>
       <c r="Q10">
-        <v>0.6576640941221754</v>
+        <v>0.8502304332095512</v>
       </c>
       <c r="R10">
-        <v>55.72749372885988</v>
+        <v>65.57875381251344</v>
       </c>
       <c r="S10">
-        <v>880.7106409935549</v>
+        <v>722.31669809256</v>
       </c>
       <c r="T10">
-        <v>1010.871061323355</v>
+        <v>1400.266226467782</v>
       </c>
       <c r="U10">
-        <v>86.49211085826526</v>
+        <v>83.46477136613942</v>
       </c>
       <c r="V10">
-        <v>114.5837797337324</v>
+        <v>109.660334116351</v>
       </c>
       <c r="W10">
-        <v>263.6225068163453</v>
+        <v>222.2561919411046</v>
       </c>
       <c r="X10">
-        <v>0.21</v>
+        <v>0.2499999999999999</v>
       </c>
       <c r="Y10">
         <v>25</v>
       </c>
       <c r="Z10">
-        <v>0.09793973261780475</v>
+        <v>0.09610131997532129</v>
       </c>
       <c r="AA10">
-        <v>0.1441754810087398</v>
+        <v>0.1622266123473927</v>
       </c>
       <c r="AB10">
-        <v>4420.516364715302</v>
+        <v>4220.34334539657</v>
       </c>
       <c r="AC10">
-        <v>160.7031473623119</v>
+        <v>121.0779682387872</v>
+      </c>
+      <c r="AD10">
+        <v>787649.7523881273</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B11">
         <v>0.25</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11">
-        <v>228.587494644068</v>
+        <v>188.6904356733047</v>
       </c>
       <c r="K11">
-        <v>224.4251841044951</v>
+        <v>183.4244661252893</v>
       </c>
       <c r="L11">
-        <v>3.879590539572842</v>
+        <v>4.911153548015446</v>
       </c>
       <c r="M11">
-        <v>0.28272</v>
+        <v>0.354816</v>
       </c>
       <c r="N11">
-        <v>2017.390408067971</v>
+        <v>2298.73532748557</v>
       </c>
       <c r="O11">
-        <v>1.114036155305761</v>
+        <v>0.9883431265981576</v>
       </c>
       <c r="P11">
-        <v>65.04416352703531</v>
+        <v>62.47695479663189</v>
       </c>
       <c r="Q11">
-        <v>0.6703419564648202</v>
+        <v>0.8558857805968161</v>
       </c>
       <c r="R11">
-        <v>56.4397110067554</v>
+        <v>65.87660014978592</v>
       </c>
       <c r="S11">
-        <v>857.8915187666793</v>
+        <v>712.7729482788421</v>
       </c>
       <c r="T11">
-        <v>907.9561730541091</v>
+        <v>1327.507928856728</v>
       </c>
       <c r="U11">
-        <v>86.49211085826526</v>
+        <v>83.46477136613942</v>
       </c>
       <c r="V11">
-        <v>114.5837797337324</v>
+        <v>109.660334116351</v>
       </c>
       <c r="W11">
-        <v>262.1624491221322</v>
+        <v>221.5440633721578</v>
       </c>
       <c r="X11">
-        <v>0.24</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="Y11">
         <v>25</v>
       </c>
       <c r="Z11">
-        <v>0.1015626006889244</v>
+        <v>0.09810823856483601</v>
       </c>
       <c r="AA11">
-        <v>0.1456227010512458</v>
+        <v>0.1627914344160028</v>
       </c>
       <c r="AB11">
-        <v>4302.529492539827</v>
+        <v>4155.630305751918</v>
       </c>
       <c r="AC11">
-        <v>162.4446173223002</v>
+        <v>121.9749279458691</v>
+      </c>
+      <c r="AD11">
+        <v>760991.8063509904</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:30">
       <c r="A12">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="B12">
         <v>0.25</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12">
-        <v>231.720852792579</v>
+        <v>190.4704047785485</v>
       </c>
       <c r="K12">
-        <v>227.5585422530062</v>
+        <v>185.204435230533</v>
       </c>
       <c r="L12">
-        <v>3.879590539572842</v>
+        <v>4.911153548015446</v>
       </c>
       <c r="M12">
-        <v>0.28272</v>
+        <v>0.354816</v>
       </c>
       <c r="N12">
-        <v>1959.328685629051</v>
+        <v>2194.57501441676</v>
       </c>
       <c r="O12">
-        <v>1.145889858306564</v>
+        <v>1.01772819116644</v>
       </c>
       <c r="P12">
-        <v>66.49977534948424</v>
+        <v>64.02421421124555</v>
       </c>
       <c r="Q12">
-        <v>0.6829404857192382</v>
+        <v>0.8588300491971224</v>
       </c>
       <c r="R12">
-        <v>57.14747150837295</v>
+        <v>66.03166394312996</v>
       </c>
       <c r="S12">
-        <v>846.3799220659979</v>
+        <v>699.9551236092361</v>
       </c>
       <c r="T12">
-        <v>859.2244763261199</v>
+        <v>1234.462965994378</v>
       </c>
       <c r="U12">
-        <v>86.49211085826526</v>
+        <v>83.46477136613942</v>
       </c>
       <c r="V12">
-        <v>114.5837797337324</v>
+        <v>109.660334116351</v>
       </c>
       <c r="W12">
-        <v>260.823182954894</v>
+        <v>220.8706956348476</v>
       </c>
       <c r="X12">
-        <v>0.27</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="Y12">
         <v>25</v>
       </c>
       <c r="Z12">
-        <v>0.1037829538584741</v>
+        <v>0.1004980986438422</v>
       </c>
       <c r="AA12">
-        <v>0.1470608649585601</v>
+        <v>0.1630854902480307</v>
       </c>
       <c r="AB12">
-        <v>4263.039569649394</v>
+        <v>4057.069586625748</v>
       </c>
       <c r="AC12">
-        <v>164.2788244236299</v>
+        <v>122.8997560192064</v>
+      </c>
+      <c r="AD12">
+        <v>726154.6858790457</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:30">
       <c r="A13">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="B13">
         <v>0.25</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13">
-        <v>229.6396785466689</v>
+        <v>192.2784491563994</v>
       </c>
       <c r="K13">
-        <v>225.477368007096</v>
+        <v>187.012479608384</v>
       </c>
       <c r="L13">
-        <v>3.879590539572842</v>
+        <v>4.911153548015446</v>
       </c>
       <c r="M13">
-        <v>0.28272</v>
+        <v>0.354816</v>
       </c>
       <c r="N13">
-        <v>1957.274745075648</v>
+        <v>2144.962945064358</v>
       </c>
       <c r="O13">
-        <v>1.155394304508699</v>
+        <v>1.119808086344312</v>
       </c>
       <c r="P13">
-        <v>66.93409798560941</v>
+        <v>65.30792221963891</v>
       </c>
       <c r="Q13">
-        <v>0.6770511829056398</v>
+        <v>0.8647807017564657</v>
       </c>
       <c r="R13">
-        <v>56.81662210291014</v>
+        <v>66.34506291720052</v>
       </c>
       <c r="S13">
-        <v>860.0752575535778</v>
+        <v>693.5054670209031</v>
       </c>
       <c r="T13">
-        <v>843.3762872940732</v>
+        <v>1189.609950218045</v>
       </c>
       <c r="U13">
-        <v>86.49211085826526</v>
+        <v>83.46477136613942</v>
       </c>
       <c r="V13">
-        <v>114.5837797337324</v>
+        <v>109.660334116351</v>
       </c>
       <c r="W13">
-        <v>266.0941478270881</v>
+        <v>220.2329833969887</v>
       </c>
       <c r="X13">
-        <v>0.21</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="Y13">
         <v>25</v>
       </c>
       <c r="Z13">
-        <v>0.1044454585364763</v>
+        <v>0.1019649314752555</v>
       </c>
       <c r="AA13">
-        <v>0.1463885815058871</v>
+        <v>0.1636798056203661</v>
       </c>
       <c r="AB13">
-        <v>4216.34898612434</v>
+        <v>4018.627486304331</v>
       </c>
       <c r="AC13">
-        <v>164.4358683334502</v>
+        <v>123.8500968393845</v>
+      </c>
+      <c r="AD13">
+        <v>709039.0431763182</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:30">
       <c r="A14">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="B14">
         <v>0.25</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14">
-        <v>232.7295753136417</v>
+        <v>194.1122495791672</v>
       </c>
       <c r="K14">
-        <v>228.5672647740689</v>
+        <v>188.8462800311518</v>
       </c>
       <c r="L14">
-        <v>3.879590539572842</v>
+        <v>4.911153548015446</v>
       </c>
       <c r="M14">
-        <v>0.28272</v>
+        <v>0.354816</v>
       </c>
       <c r="N14">
-        <v>1882.617212224446</v>
+        <v>2095.939261973159</v>
       </c>
       <c r="O14">
-        <v>1.194833836172251</v>
+        <v>1.140137808563615</v>
       </c>
       <c r="P14">
-        <v>68.73635779068969</v>
+        <v>66.23692516817438</v>
       </c>
       <c r="Q14">
-        <v>0.6915283804720666</v>
+        <v>0.8699231764459305</v>
       </c>
       <c r="R14">
-        <v>57.62992248144737</v>
+        <v>66.61589813666424</v>
       </c>
       <c r="S14">
-        <v>844.2249534962078</v>
+        <v>687.0280542880616</v>
       </c>
       <c r="T14">
-        <v>781.9296623389865</v>
+        <v>1145.851960876304</v>
       </c>
       <c r="U14">
-        <v>86.49211085826526</v>
+        <v>83.46477136613942</v>
       </c>
       <c r="V14">
-        <v>114.5837797337324</v>
+        <v>109.660334116351</v>
       </c>
       <c r="W14">
-        <v>264.6204010950206</v>
+        <v>219.6281343707394</v>
       </c>
       <c r="X14">
-        <v>0.24</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="Y14">
         <v>25</v>
       </c>
       <c r="Z14">
-        <v>0.107194579702468</v>
+        <v>0.103382008892112</v>
       </c>
       <c r="AA14">
-        <v>0.1480412016330969</v>
+        <v>0.1641934050498936</v>
       </c>
       <c r="AB14">
-        <v>4153.911105254432</v>
+        <v>3977.843385853833</v>
       </c>
       <c r="AC14">
-        <v>166.227630392342</v>
+        <v>124.8238352079732</v>
+      </c>
+      <c r="AD14">
+        <v>692125.3454957538</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:30">
       <c r="A15">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B15">
         <v>0.25</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15">
-        <v>235.9217810923387</v>
+        <v>194.4392209214332</v>
       </c>
       <c r="K15">
-        <v>231.7594705527659</v>
+        <v>189.0153878700671</v>
       </c>
       <c r="L15">
-        <v>3.879590539572842</v>
+        <v>5.057929051366098</v>
       </c>
       <c r="M15">
-        <v>0.28272</v>
+        <v>0.365904</v>
       </c>
       <c r="N15">
-        <v>1828.812413666139</v>
+        <v>2040.472404963197</v>
       </c>
       <c r="O15">
-        <v>1.227211985443923</v>
+        <v>1.138945687309793</v>
       </c>
       <c r="P15">
-        <v>70.21593512170436</v>
+        <v>66.18244905935867</v>
       </c>
       <c r="Q15">
-        <v>0.7046963301898179</v>
+        <v>0.832140353622469</v>
       </c>
       <c r="R15">
-        <v>58.36967190055057</v>
+        <v>64.6260158855537</v>
       </c>
       <c r="S15">
-        <v>832.2509056711619</v>
+        <v>693.0386252911103</v>
       </c>
       <c r="T15">
-        <v>737.8540922304441</v>
+        <v>1086.457866167296</v>
       </c>
       <c r="U15">
-        <v>86.49211085826526</v>
+        <v>85.97844111220235</v>
       </c>
       <c r="V15">
-        <v>114.5837797337324</v>
+        <v>112.2204637408397</v>
       </c>
       <c r="W15">
-        <v>263.2685783929736</v>
+        <v>225.2491455986025</v>
       </c>
       <c r="X15">
-        <v>0.27</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="Y15">
         <v>25</v>
       </c>
       <c r="Z15">
-        <v>0.1094514892478887</v>
+        <v>0.103298912424353</v>
       </c>
       <c r="AA15">
-        <v>0.1495443667752311</v>
+        <v>0.1604198840468984</v>
       </c>
       <c r="AB15">
-        <v>4112.722650138298</v>
+        <v>3886.423906742699</v>
       </c>
       <c r="AC15">
-        <v>168.1138766925355</v>
+        <v>125.5540926449616</v>
+      </c>
+      <c r="AD15">
+        <v>656249.7178191723</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:30">
       <c r="A16">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="B16">
         <v>0.25</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <v>33</v>
       </c>
       <c r="G16">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16">
-        <v>241.9765191711099</v>
+        <v>198.1332769275971</v>
       </c>
       <c r="K16">
-        <v>237.5532694192979</v>
+        <v>192.709443876231</v>
       </c>
       <c r="L16">
-        <v>4.122289751811999</v>
+        <v>5.057929051366098</v>
       </c>
       <c r="M16">
-        <v>0.30096</v>
+        <v>0.365904</v>
       </c>
       <c r="N16">
-        <v>1776.819019514422</v>
+        <v>1950.164222180189</v>
       </c>
       <c r="O16">
-        <v>1.202401899337844</v>
+        <v>1.180431712993812</v>
       </c>
       <c r="P16">
-        <v>69.08219394721445</v>
+        <v>68.0782270620152</v>
       </c>
       <c r="Q16">
-        <v>0.6615431950743129</v>
+        <v>0.8458028256831676</v>
       </c>
       <c r="R16">
-        <v>55.94541396226707</v>
+        <v>65.3455680160789</v>
       </c>
       <c r="S16">
-        <v>837.7254355342134</v>
+        <v>679.8740295603221</v>
       </c>
       <c r="T16">
-        <v>683.9989865688128</v>
+        <v>1006.668403969955</v>
       </c>
       <c r="U16">
-        <v>91.51945035039111</v>
+        <v>85.97844111220235</v>
       </c>
       <c r="V16">
-        <v>119.702007366146</v>
+        <v>112.2204637408397</v>
       </c>
       <c r="W16">
-        <v>270.3977119913393</v>
+        <v>223.9161392443668</v>
       </c>
       <c r="X16">
-        <v>0.24</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="Y16">
         <v>25</v>
       </c>
       <c r="Z16">
-        <v>0.1077221093600608</v>
+        <v>0.1061906838650929</v>
       </c>
       <c r="AA16">
-        <v>0.1446182932505129</v>
+        <v>0.1617844095487322</v>
       </c>
       <c r="AB16">
-        <v>4030.993893869297</v>
+        <v>3814.260697600545</v>
       </c>
       <c r="AC16">
-        <v>171.7549778058505</v>
+        <v>127.4756639406264</v>
+      </c>
+      <c r="AD16">
+        <v>624828.6645330754</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:30">
       <c r="A17">
         <v>720</v>
       </c>
@@ -1778,1064 +1826,3216 @@
         <v>0.25</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F17">
         <v>33</v>
       </c>
       <c r="G17">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17">
-        <v>246.3712823621983</v>
+        <v>200.0213788643767</v>
       </c>
       <c r="K17">
-        <v>241.9480326103863</v>
+        <v>194.5975458130106</v>
       </c>
       <c r="L17">
-        <v>4.122289751811999</v>
+        <v>5.057929051366098</v>
       </c>
       <c r="M17">
-        <v>0.30096</v>
+        <v>0.365904</v>
       </c>
       <c r="N17">
-        <v>1698.083240489645</v>
+        <v>1928.527433680899</v>
       </c>
       <c r="O17">
-        <v>1.269432872562279</v>
+        <v>1.19361099482626</v>
       </c>
       <c r="P17">
-        <v>72.14529392944519</v>
+        <v>68.68047787242217</v>
       </c>
       <c r="Q17">
-        <v>0.6850711751109774</v>
+        <v>0.8529463350556357</v>
       </c>
       <c r="R17">
-        <v>57.26716943201429</v>
+        <v>65.72179036921895</v>
       </c>
       <c r="S17">
-        <v>830.5042026554289</v>
+        <v>676.5646679804338</v>
       </c>
       <c r="T17">
-        <v>608.0459668718231</v>
+        <v>987.3478365756822</v>
       </c>
       <c r="U17">
-        <v>91.51945035039111</v>
+        <v>85.97844111220235</v>
       </c>
       <c r="V17">
-        <v>119.702007366146</v>
+        <v>112.2204637408397</v>
       </c>
       <c r="W17">
-        <v>272.9328751769107</v>
+        <v>223.3011747794878</v>
       </c>
       <c r="X17">
-        <v>0.24</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="Y17">
         <v>25</v>
       </c>
       <c r="Z17">
-        <v>0.1123944839927094</v>
+        <v>0.1071093418995551</v>
       </c>
       <c r="AA17">
-        <v>0.1473040902207328</v>
+        <v>0.1624978602820999</v>
       </c>
       <c r="AB17">
-        <v>3941.621767762456</v>
+        <v>3804.659901500975</v>
       </c>
       <c r="AC17">
-        <v>175.7793940701047</v>
+        <v>128.473822891771</v>
+      </c>
+      <c r="AD17">
+        <v>617092.3978598013</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:30">
       <c r="A18">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="B18">
         <v>0.25</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18">
-        <v>249.7445985318644</v>
+        <v>196.6750403949914</v>
       </c>
       <c r="K18">
-        <v>245.3213487800524</v>
+        <v>191.0927406427308</v>
       </c>
       <c r="L18">
-        <v>4.122289751811999</v>
+        <v>5.205307752260536</v>
       </c>
       <c r="M18">
-        <v>0.30096</v>
+        <v>0.376992</v>
       </c>
       <c r="N18">
-        <v>1652.16630881898</v>
+        <v>1989.861703004273</v>
       </c>
       <c r="O18">
-        <v>1.300961820896623</v>
+        <v>1.139201919978008</v>
       </c>
       <c r="P18">
-        <v>73.58606550767249</v>
+        <v>66.19415806854802</v>
       </c>
       <c r="Q18">
-        <v>0.698839832345285</v>
+        <v>0.8005062829836612</v>
       </c>
       <c r="R18">
-        <v>58.04066541348661</v>
+        <v>62.95996578684449</v>
       </c>
       <c r="S18">
-        <v>818.1183668053764</v>
+        <v>698.9402379221659</v>
       </c>
       <c r="T18">
-        <v>572.2711883718259</v>
+        <v>1031.631270504807</v>
       </c>
       <c r="U18">
-        <v>91.51945035039111</v>
+        <v>88.49211085826526</v>
       </c>
       <c r="V18">
-        <v>119.702007366146</v>
+        <v>114.780719910948</v>
       </c>
       <c r="W18">
-        <v>271.538587906268</v>
+        <v>230.5118701845871</v>
       </c>
       <c r="X18">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="Y18">
         <v>25</v>
       </c>
       <c r="Z18">
-        <v>0.1145922002320101</v>
+        <v>0.1033167730485008</v>
       </c>
       <c r="AA18">
-        <v>0.1488758281186005</v>
+        <v>0.1572604634148421</v>
       </c>
       <c r="AB18">
-        <v>3900.685647480243</v>
+        <v>3809.881974619808</v>
       </c>
       <c r="AC18">
-        <v>177.7604670425751</v>
+        <v>127.3932628081785</v>
+      </c>
+      <c r="AD18">
+        <v>623132.9821841116</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:30">
       <c r="A19">
-        <v>800</v>
+        <v>725</v>
       </c>
       <c r="B19">
         <v>0.25</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G19">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19">
-        <v>225.7486671414554</v>
+        <v>200.3472806369125</v>
       </c>
       <c r="K19">
-        <v>221.6281043842537</v>
+        <v>194.7649808846519</v>
       </c>
       <c r="L19">
-        <v>3.842162757201732</v>
+        <v>5.205307752260536</v>
       </c>
       <c r="M19">
-        <v>0.2784</v>
+        <v>0.376992</v>
       </c>
       <c r="N19">
-        <v>2052.101541837777</v>
+        <v>1903.792181700677</v>
       </c>
       <c r="O19">
-        <v>1.02330632558121</v>
+        <v>1.180433088381214</v>
       </c>
       <c r="P19">
-        <v>64.31792876032128</v>
+        <v>68.0782899127978</v>
       </c>
       <c r="Q19">
-        <v>0.6757983680046243</v>
+        <v>0.8184037756765435</v>
       </c>
       <c r="R19">
-        <v>56.74624143506625</v>
+        <v>63.90256087073622</v>
       </c>
       <c r="S19">
-        <v>859.2846283020833</v>
+        <v>685.6532362284096</v>
       </c>
       <c r="T19">
-        <v>941.7698129383572</v>
+        <v>955.987498791535</v>
       </c>
       <c r="U19">
-        <v>81.46477136613942</v>
+        <v>88.49211085826526</v>
       </c>
       <c r="V19">
-        <v>110.4568832876111</v>
+        <v>114.780719910948</v>
       </c>
       <c r="W19">
-        <v>260.3429096984689</v>
+        <v>228.9960628039973</v>
       </c>
       <c r="X19">
-        <v>0.24</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="Y19">
         <v>25</v>
       </c>
       <c r="Z19">
-        <v>0.1009517631482102</v>
+        <v>0.1061907797360745</v>
       </c>
       <c r="AA19">
-        <v>0.146245568528991</v>
+        <v>0.159047957295146</v>
       </c>
       <c r="AB19">
-        <v>4348.108245473504</v>
+        <v>3749.745567182058</v>
       </c>
       <c r="AC19">
-        <v>162.38034154328</v>
+        <v>129.2434471749766</v>
+      </c>
+      <c r="AD19">
+        <v>593371.5509740562</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:30">
       <c r="A20">
-        <v>780</v>
+        <v>715</v>
       </c>
       <c r="B20">
         <v>0.25</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G20">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20">
-        <v>228.8447370421779</v>
+        <v>202.2339204825621</v>
       </c>
       <c r="K20">
-        <v>224.7241742849761</v>
+        <v>196.6516207303016</v>
       </c>
       <c r="L20">
-        <v>3.842162757201732</v>
+        <v>5.205307752260536</v>
       </c>
       <c r="M20">
-        <v>0.2784</v>
+        <v>0.376992</v>
       </c>
       <c r="N20">
-        <v>1973.014681873379</v>
+        <v>1862.003554067971</v>
       </c>
       <c r="O20">
-        <v>1.142706655807365</v>
+        <v>1.199780091239691</v>
       </c>
       <c r="P20">
-        <v>66.35431322877045</v>
+        <v>68.962385745833</v>
       </c>
       <c r="Q20">
-        <v>0.6878439719335162</v>
+        <v>0.8260079249202427</v>
       </c>
       <c r="R20">
-        <v>57.42293968347563</v>
+        <v>64.30304343090737</v>
       </c>
       <c r="S20">
-        <v>843.9981137342279</v>
+        <v>678.9656012605654</v>
       </c>
       <c r="T20">
-        <v>875.1605545641145</v>
+        <v>919.586102744783</v>
       </c>
       <c r="U20">
-        <v>81.46477136613942</v>
+        <v>88.49211085826526</v>
       </c>
       <c r="V20">
-        <v>110.4568832876111</v>
+        <v>114.780719910948</v>
       </c>
       <c r="W20">
-        <v>259.0129387128947</v>
+        <v>228.3000452338752</v>
       </c>
       <c r="X20">
-        <v>0.27</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="Y20">
         <v>25</v>
       </c>
       <c r="Z20">
-        <v>0.1035610696474535</v>
+        <v>0.1075393569836561</v>
       </c>
       <c r="AA20">
-        <v>0.1476206141761852</v>
+        <v>0.1598074139671655</v>
       </c>
       <c r="AB20">
-        <v>4279.26572923637</v>
+        <v>3715.683069969532</v>
       </c>
       <c r="AC20">
-        <v>164.2419858914608</v>
+        <v>130.2146064926875</v>
+      </c>
+      <c r="AD20">
+        <v>578760.4842449684</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:30">
       <c r="A21">
-        <v>755</v>
+        <v>710</v>
       </c>
       <c r="B21">
         <v>0.25</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G21">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21">
-        <v>229.835925899319</v>
+        <v>204.1504669878416</v>
       </c>
       <c r="K21">
-        <v>225.7153631421173</v>
+        <v>198.5681672355811</v>
       </c>
       <c r="L21">
-        <v>3.842162757201732</v>
+        <v>5.205307752260536</v>
       </c>
       <c r="M21">
-        <v>0.2784</v>
+        <v>0.376992</v>
       </c>
       <c r="N21">
-        <v>1894.892842785426</v>
+        <v>1841.874532703611</v>
       </c>
       <c r="O21">
-        <v>1.192259855901435</v>
+        <v>1.213626507719168</v>
       </c>
       <c r="P21">
-        <v>68.61873516725859</v>
+        <v>69.59512246487536</v>
       </c>
       <c r="Q21">
-        <v>0.6963245474892905</v>
+        <v>0.8341243576632713</v>
       </c>
       <c r="R21">
-        <v>57.89936167592808</v>
+        <v>64.73050607797185</v>
       </c>
       <c r="S21">
-        <v>841.8678614484824</v>
+        <v>675.610528573727</v>
       </c>
       <c r="T21">
-        <v>796.4083461898965</v>
+        <v>901.7352840012909</v>
       </c>
       <c r="U21">
-        <v>81.46477136613942</v>
+        <v>88.49211085826526</v>
       </c>
       <c r="V21">
-        <v>110.4568832876111</v>
+        <v>114.780719910948</v>
       </c>
       <c r="W21">
-        <v>262.7838022468245</v>
+        <v>227.6408824946493</v>
       </c>
       <c r="X21">
-        <v>0.24</v>
+        <v>0.3099999999999999</v>
       </c>
       <c r="Y21">
         <v>25</v>
       </c>
       <c r="Z21">
-        <v>0.107015161150957</v>
+        <v>0.1085045174460468</v>
       </c>
       <c r="AA21">
-        <v>0.1485887000083699</v>
+        <v>0.1606180344326697</v>
       </c>
       <c r="AB21">
-        <v>4169.27344733263</v>
+        <v>3708.415210840078</v>
       </c>
       <c r="AC21">
-        <v>166.1110248115812</v>
+        <v>131.2130237494874</v>
+      </c>
+      <c r="AD21">
+        <v>571522.3630994097</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:30">
       <c r="A22">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="B22">
         <v>0.25</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G22">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22">
-        <v>232.9900763265495</v>
+        <v>206.0944493726485</v>
       </c>
       <c r="K22">
-        <v>228.8695135693478</v>
+        <v>200.512149620388</v>
       </c>
       <c r="L22">
-        <v>3.842162757201732</v>
+        <v>5.205307752260536</v>
       </c>
       <c r="M22">
-        <v>0.2784</v>
+        <v>0.376992</v>
       </c>
       <c r="N22">
-        <v>1840.304185357848</v>
+        <v>1821.887797020662</v>
       </c>
       <c r="O22">
-        <v>1.224882206379757</v>
+        <v>1.226688640348211</v>
       </c>
       <c r="P22">
-        <v>70.10947170834834</v>
+        <v>70.1920199333032</v>
       </c>
       <c r="Q22">
-        <v>0.7094707001668406</v>
+        <v>0.8414036141112931</v>
       </c>
       <c r="R22">
-        <v>58.63788658034427</v>
+        <v>65.1138777300816</v>
       </c>
       <c r="S22">
-        <v>829.9300533096224</v>
+        <v>672.247865323468</v>
       </c>
       <c r="T22">
-        <v>751.5025204263419</v>
+        <v>884.115720711973</v>
       </c>
       <c r="U22">
-        <v>81.46477136613942</v>
+        <v>88.49211085826526</v>
       </c>
       <c r="V22">
-        <v>110.4568832876111</v>
+        <v>114.780719910948</v>
       </c>
       <c r="W22">
-        <v>261.4413618751166</v>
+        <v>227.0156883752779</v>
       </c>
       <c r="X22">
-        <v>0.27</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="Y22">
         <v>25</v>
       </c>
       <c r="Z22">
-        <v>0.1092890926709714</v>
+        <v>0.109415009629114</v>
       </c>
       <c r="AA22">
-        <v>0.1500893769460581</v>
+        <v>0.1613450427671486</v>
       </c>
       <c r="AB22">
-        <v>4127.711350297663</v>
+        <v>3698.966870555142</v>
       </c>
       <c r="AC22">
-        <v>168.0239885088901</v>
+        <v>132.2364390573944</v>
+      </c>
+      <c r="AD22">
+        <v>564329.1834331743</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:30">
       <c r="A23">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B23">
         <v>0.25</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>31</v>
       </c>
       <c r="G23">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J23">
-        <v>238.5198676636323</v>
+        <v>193.2493253084351</v>
       </c>
       <c r="K23">
-        <v>234.1285178916205</v>
+        <v>187.8837647613723</v>
       </c>
       <c r="L23">
-        <v>4.093749772011823</v>
+        <v>5.0054645470628</v>
       </c>
       <c r="M23">
-        <v>0.2976</v>
+        <v>0.360096</v>
       </c>
       <c r="N23">
-        <v>1784.378883841034</v>
+        <v>2036.399094772426</v>
       </c>
       <c r="O23">
-        <v>1.202134867247244</v>
+        <v>1.150105400257244</v>
       </c>
       <c r="P23">
-        <v>69.06999143914054</v>
+        <v>66.69241206432031</v>
       </c>
       <c r="Q23">
-        <v>0.6655921645459609</v>
+        <v>0.8486650261739206</v>
       </c>
       <c r="R23">
-        <v>56.17287707374754</v>
+        <v>65.49630958407346</v>
       </c>
       <c r="S23">
-        <v>836.0457501605094</v>
+        <v>687.6364625681495</v>
       </c>
       <c r="T23">
-        <v>693.0194937283409</v>
+        <v>1086.385239702807</v>
       </c>
       <c r="U23">
-        <v>86.49211085826526</v>
+        <v>80.9511016200765</v>
       </c>
       <c r="V23">
-        <v>115.5739959036835</v>
+        <v>108.0895081111588</v>
       </c>
       <c r="W23">
-        <v>268.2768752009471</v>
+        <v>222.6388664474836</v>
       </c>
       <c r="X23">
-        <v>0.24</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="Y23">
         <v>25</v>
       </c>
       <c r="Z23">
-        <v>0.1077034959652941</v>
+        <v>0.1040767969928602</v>
       </c>
       <c r="AA23">
-        <v>0.1450804965472906</v>
+        <v>0.1620702689117847</v>
       </c>
       <c r="AB23">
-        <v>4043.877040428147</v>
+        <v>3900.055349531655</v>
       </c>
       <c r="AC23">
-        <v>171.2547309330948</v>
+        <v>126.6652978679912</v>
+      </c>
+      <c r="AD23">
+        <v>660639.6727922476</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:30">
       <c r="A24">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="B24">
         <v>0.25</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J24">
-        <v>242.8488434596154</v>
+        <v>193.4742785253546</v>
       </c>
       <c r="K24">
-        <v>238.4574936876036</v>
+        <v>187.9448468168302</v>
       </c>
       <c r="L24">
-        <v>4.093749772011823</v>
+        <v>5.157719708524399</v>
       </c>
       <c r="M24">
-        <v>0.2976</v>
+        <v>0.371712</v>
       </c>
       <c r="N24">
-        <v>1704.673153107206</v>
+        <v>2028.401006975101</v>
       </c>
       <c r="O24">
-        <v>1.269650634719363</v>
+        <v>1.131167748125636</v>
       </c>
       <c r="P24">
-        <v>72.15524495995251</v>
+        <v>65.82702224350422</v>
       </c>
       <c r="Q24">
-        <v>0.6891013468217999</v>
+        <v>0.8088673107821618</v>
       </c>
       <c r="R24">
-        <v>57.49357652240195</v>
+        <v>63.40031035546013</v>
       </c>
       <c r="S24">
-        <v>828.8526117270909</v>
+        <v>700.3428068505948</v>
       </c>
       <c r="T24">
-        <v>616.04686436296</v>
+        <v>1068.687788059131</v>
       </c>
       <c r="U24">
-        <v>86.49211085826526</v>
+        <v>83.46477136613942</v>
       </c>
       <c r="V24">
-        <v>115.5739959036835</v>
+        <v>110.6493308068514</v>
       </c>
       <c r="W24">
-        <v>270.7921540934377</v>
+        <v>228.4403701145228</v>
       </c>
       <c r="X24">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="Y24">
         <v>25</v>
       </c>
       <c r="Z24">
-        <v>0.1124096630409875</v>
+        <v>0.1027567534194903</v>
       </c>
       <c r="AA24">
-        <v>0.1477641476907547</v>
+        <v>0.1580955125627495</v>
       </c>
       <c r="AB24">
-        <v>3953.93216956829</v>
+        <v>3855.817805144992</v>
       </c>
       <c r="AC24">
-        <v>175.2162645804754</v>
+        <v>127.3314796101938</v>
+      </c>
+      <c r="AD24">
+        <v>641212.6728354789</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:30">
       <c r="A25">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="B25">
         <v>0.25</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="H25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J25">
-        <v>246.1748425522864</v>
+        <v>197.0874115163374</v>
       </c>
       <c r="K25">
-        <v>241.7834927802746</v>
+        <v>191.557979807813</v>
       </c>
       <c r="L25">
-        <v>4.093749772011823</v>
+        <v>5.157719708524399</v>
       </c>
       <c r="M25">
-        <v>0.2976</v>
+        <v>0.371712</v>
       </c>
       <c r="N25">
-        <v>1658.312083847897</v>
+        <v>1918.132797997767</v>
       </c>
       <c r="O25">
-        <v>1.30136705972819</v>
+        <v>1.178759832330882</v>
       </c>
       <c r="P25">
-        <v>73.60458361949546</v>
+        <v>68.00182749055487</v>
       </c>
       <c r="Q25">
-        <v>0.7028720589419569</v>
+        <v>0.825161861479476</v>
       </c>
       <c r="R25">
-        <v>58.26718794330455</v>
+        <v>64.25848438268693</v>
       </c>
       <c r="S25">
-        <v>816.4934247291565</v>
+        <v>683.8010864148005</v>
       </c>
       <c r="T25">
-        <v>579.7924273698933</v>
+        <v>971.8957189827744</v>
       </c>
       <c r="U25">
-        <v>86.49211085826526</v>
+        <v>83.46477136613942</v>
       </c>
       <c r="V25">
-        <v>115.5739959036835</v>
+        <v>110.6493308068514</v>
       </c>
       <c r="W25">
-        <v>269.4088027723569</v>
+        <v>226.9381845708153</v>
       </c>
       <c r="X25">
-        <v>0.27</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="Y25">
         <v>25</v>
       </c>
       <c r="Z25">
-        <v>0.1146204472877471</v>
+        <v>0.1060741459062579</v>
       </c>
       <c r="AA25">
-        <v>0.1493361201606587</v>
+        <v>0.1597229142414961</v>
       </c>
       <c r="AB25">
-        <v>3912.745728588074</v>
+        <v>3765.658483390836</v>
       </c>
       <c r="AC25">
-        <v>177.21920867899</v>
+        <v>129.2206761628505</v>
+      </c>
+      <c r="AD25">
+        <v>603245.6186789634</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:30">
       <c r="A26">
-        <v>775</v>
+        <v>720</v>
       </c>
       <c r="B26">
         <v>0.25</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F26">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J26">
-        <v>246.2561102264708</v>
+        <v>198.9436334768226</v>
       </c>
       <c r="K26">
-        <v>241.5917957524344</v>
+        <v>193.4142017682982</v>
       </c>
       <c r="L26">
-        <v>4.347514474036384</v>
+        <v>5.157719708524399</v>
       </c>
       <c r="M26">
-        <v>0.3168</v>
+        <v>0.371712</v>
       </c>
       <c r="N26">
-        <v>1766.648026572369</v>
+        <v>1897.334186027238</v>
       </c>
       <c r="O26">
-        <v>1.155542013542127</v>
+        <v>1.193486181484483</v>
       </c>
       <c r="P26">
-        <v>66.94084781357554</v>
+        <v>68.67477430395837</v>
       </c>
       <c r="Q26">
-        <v>0.6264951050170129</v>
+        <v>0.8341447412164753</v>
       </c>
       <c r="R26">
-        <v>53.97648145445128</v>
+        <v>64.73157960471507</v>
       </c>
       <c r="S26">
-        <v>835.5726104598901</v>
+        <v>680.4708469282848</v>
       </c>
       <c r="T26">
-        <v>680.1360150738299</v>
+        <v>953.2632507143187</v>
       </c>
       <c r="U26">
-        <v>91.51945035039111</v>
+        <v>83.46477136613942</v>
       </c>
       <c r="V26">
-        <v>120.6918737927216</v>
+        <v>110.6493308068514</v>
       </c>
       <c r="W26">
-        <v>269.8334045936249</v>
+        <v>226.2484217781331</v>
       </c>
       <c r="X26">
-        <v>0.27</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="Y26">
         <v>25</v>
       </c>
       <c r="Z26">
-        <v>0.1044557545519987</v>
+        <v>0.1071006418216078</v>
       </c>
       <c r="AA26">
-        <v>0.1406174375059399</v>
+        <v>0.1606200702193151</v>
       </c>
       <c r="AB26">
-        <v>4050.125931684972</v>
+        <v>3760.694076086957</v>
       </c>
       <c r="AC26">
-        <v>174.2860407288592</v>
+        <v>130.2105173270983</v>
+      </c>
+      <c r="AD26">
+        <v>595789.5316964492</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:30">
       <c r="A27">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="B27">
         <v>0.25</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27">
         <v>33</v>
       </c>
       <c r="G27">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J27">
-        <v>252.042046675377</v>
+        <v>202.8960282068211</v>
       </c>
       <c r="K27">
-        <v>247.3777322013406</v>
+        <v>197.2021223354111</v>
       </c>
       <c r="L27">
-        <v>4.347514474036384</v>
+        <v>5.310577871410027</v>
       </c>
       <c r="M27">
-        <v>0.3168</v>
+        <v>0.383328</v>
       </c>
       <c r="N27">
-        <v>1649.420339224242</v>
+        <v>1812.866811566287</v>
       </c>
       <c r="O27">
-        <v>1.260655928733709</v>
+        <v>1.210725365543514</v>
       </c>
       <c r="P27">
-        <v>71.7442158129852</v>
+        <v>69.46254959416768</v>
       </c>
       <c r="Q27">
-        <v>0.6611183461969216</v>
+        <v>0.8137435357811676</v>
       </c>
       <c r="R27">
-        <v>55.9215467910678</v>
+        <v>63.65712318342909</v>
       </c>
       <c r="S27">
-        <v>830.3766062689128</v>
+        <v>679.5970741674518</v>
       </c>
       <c r="T27">
-        <v>561.284437043205</v>
+        <v>869.9702549995503</v>
       </c>
       <c r="U27">
-        <v>91.51945035039111</v>
+        <v>85.97844111220235</v>
       </c>
       <c r="V27">
-        <v>120.6918737927216</v>
+        <v>113.2092959669746</v>
       </c>
       <c r="W27">
-        <v>276.4305428047423</v>
+        <v>230.6065411205505</v>
       </c>
       <c r="X27">
-        <v>0.24</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="Y27">
         <v>25</v>
       </c>
       <c r="Z27">
-        <v>0.1117826896575818</v>
+        <v>0.1083022941684309</v>
       </c>
       <c r="AA27">
-        <v>0.1445697953418136</v>
+        <v>0.158582520575228</v>
       </c>
       <c r="AB27">
-        <v>3895.320692311011</v>
+        <v>3661.4184300771</v>
       </c>
       <c r="AC27">
-        <v>180.6981401790794</v>
+        <v>132.8591059634355</v>
+      </c>
+      <c r="AD27">
+        <v>551389.5982391516</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:30">
       <c r="A28">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B28">
         <v>0.25</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>33</v>
       </c>
       <c r="G28">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J28">
-        <v>255.4854570562588</v>
+        <v>204.8052091534923</v>
       </c>
       <c r="K28">
-        <v>250.8211425822225</v>
+        <v>199.1113032820823</v>
       </c>
       <c r="L28">
-        <v>4.347514474036384</v>
+        <v>5.310577871410027</v>
       </c>
       <c r="M28">
-        <v>0.3168</v>
+        <v>0.383328</v>
       </c>
       <c r="N28">
-        <v>1606.473520377083</v>
+        <v>1793.653532991736</v>
       </c>
       <c r="O28">
-        <v>1.288767969296014</v>
+        <v>1.225371735374056</v>
       </c>
       <c r="P28">
-        <v>73.028845690856</v>
+        <v>70.13184160962842</v>
       </c>
       <c r="Q28">
-        <v>0.6748655841600327</v>
+        <v>0.8225221960827279</v>
       </c>
       <c r="R28">
-        <v>56.69383948017002</v>
+        <v>64.11946291924566</v>
       </c>
       <c r="S28">
-        <v>818.0928780744317</v>
+        <v>676.2127612502289</v>
       </c>
       <c r="T28">
-        <v>528.538982857806</v>
+        <v>852.9913522137992</v>
       </c>
       <c r="U28">
-        <v>91.51945035039111</v>
+        <v>85.97844111220235</v>
       </c>
       <c r="V28">
-        <v>120.6918737927216</v>
+        <v>113.2092959669746</v>
       </c>
       <c r="W28">
-        <v>275.0183875750008</v>
+        <v>229.9056286138478</v>
       </c>
       <c r="X28">
-        <v>0.27</v>
+        <v>0.2899999999999999</v>
       </c>
       <c r="Y28">
         <v>25</v>
       </c>
       <c r="Z28">
-        <v>0.1137422313273038</v>
+        <v>0.1093232151481619</v>
       </c>
       <c r="AA28">
-        <v>0.1461390881588203</v>
+        <v>0.1594592803446311</v>
       </c>
       <c r="AB28">
-        <v>3856.136396358574</v>
+        <v>3655.734226979615</v>
       </c>
       <c r="AC28">
-        <v>182.7396189595362</v>
+        <v>133.8721840066542</v>
+      </c>
+      <c r="AD28">
+        <v>544462.5652428506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29">
+        <v>690</v>
+      </c>
+      <c r="B29">
+        <v>0.25</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>110</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>33</v>
+      </c>
+      <c r="G29">
+        <v>1.36</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>42</v>
+      </c>
+      <c r="J29">
+        <v>208.7119969863221</v>
+      </c>
+      <c r="K29">
+        <v>203.0180911149121</v>
+      </c>
+      <c r="L29">
+        <v>5.310577871410027</v>
+      </c>
+      <c r="M29">
+        <v>0.383328</v>
+      </c>
+      <c r="N29">
+        <v>1736.007534873795</v>
+      </c>
+      <c r="O29">
+        <v>1.256704629222282</v>
+      </c>
+      <c r="P29">
+        <v>71.56365412812475</v>
+      </c>
+      <c r="Q29">
+        <v>0.8359474148244816</v>
+      </c>
+      <c r="R29">
+        <v>64.82651979046767</v>
+      </c>
+      <c r="S29">
+        <v>666.0133885527822</v>
+      </c>
+      <c r="T29">
+        <v>803.3754804608839</v>
+      </c>
+      <c r="U29">
+        <v>85.97844111220235</v>
+      </c>
+      <c r="V29">
+        <v>113.2092959669746</v>
+      </c>
+      <c r="W29">
+        <v>228.6122391594664</v>
+      </c>
+      <c r="X29">
+        <v>0.3299999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>25</v>
+      </c>
+      <c r="Z29">
+        <v>0.1115072654661208</v>
+      </c>
+      <c r="AA29">
+        <v>0.1608001104125305</v>
+      </c>
+      <c r="AB29">
+        <v>3608.038237440038</v>
+      </c>
+      <c r="AC29">
+        <v>135.9789763626492</v>
+      </c>
+      <c r="AD29">
+        <v>523940.5307353589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30">
+        <v>715</v>
+      </c>
+      <c r="B30">
+        <v>0.25</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>110</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>34</v>
+      </c>
+      <c r="G30">
+        <v>1.36</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>42</v>
+      </c>
+      <c r="J30">
+        <v>205.0462325993977</v>
+      </c>
+      <c r="K30">
+        <v>199.1872494451974</v>
+      </c>
+      <c r="L30">
+        <v>5.464039154200218</v>
+      </c>
+      <c r="M30">
+        <v>0.394944</v>
+      </c>
+      <c r="N30">
+        <v>1793.024803829922</v>
+      </c>
+      <c r="O30">
+        <v>1.199665589236915</v>
+      </c>
+      <c r="P30">
+        <v>68.95715337241225</v>
+      </c>
+      <c r="Q30">
+        <v>0.7843078597009687</v>
+      </c>
+      <c r="R30">
+        <v>62.10685443683201</v>
+      </c>
+      <c r="S30">
+        <v>688.7085166911197</v>
+      </c>
+      <c r="T30">
+        <v>843.1076730108985</v>
+      </c>
+      <c r="U30">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V30">
+        <v>115.7693939746022</v>
+      </c>
+      <c r="W30">
+        <v>235.8703988993713</v>
+      </c>
+      <c r="X30">
+        <v>0.23</v>
+      </c>
+      <c r="Y30">
+        <v>25</v>
+      </c>
+      <c r="Z30">
+        <v>0.1075313756546164</v>
+      </c>
+      <c r="AA30">
+        <v>0.1556426623638659</v>
+      </c>
+      <c r="AB30">
+        <v>3618.848407303703</v>
+      </c>
+      <c r="AC30">
+        <v>134.6336405815215</v>
+      </c>
+      <c r="AD30">
+        <v>530627.206790076</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31">
+        <v>710</v>
+      </c>
+      <c r="B31">
+        <v>0.25</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <v>34</v>
+      </c>
+      <c r="G31">
+        <v>1.36</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>42</v>
+      </c>
+      <c r="J31">
+        <v>206.9384896577282</v>
+      </c>
+      <c r="K31">
+        <v>201.0795065035279</v>
+      </c>
+      <c r="L31">
+        <v>5.464039154200218</v>
+      </c>
+      <c r="M31">
+        <v>0.394944</v>
+      </c>
+      <c r="N31">
+        <v>1774.63194373537</v>
+      </c>
+      <c r="O31">
+        <v>1.216002381141083</v>
+      </c>
+      <c r="P31">
+        <v>69.70369224219435</v>
+      </c>
+      <c r="Q31">
+        <v>0.7950522473791075</v>
+      </c>
+      <c r="R31">
+        <v>62.67272180041351</v>
+      </c>
+      <c r="S31">
+        <v>685.300901043136</v>
+      </c>
+      <c r="T31">
+        <v>826.7882333007423</v>
+      </c>
+      <c r="U31">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V31">
+        <v>115.7693939746022</v>
+      </c>
+      <c r="W31">
+        <v>235.0725480446914</v>
+      </c>
+      <c r="X31">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="Y31">
+        <v>25</v>
+      </c>
+      <c r="Z31">
+        <v>0.1086701270168608</v>
+      </c>
+      <c r="AA31">
+        <v>0.1567157471557889</v>
+      </c>
+      <c r="AB31">
+        <v>3618.317597917796</v>
+      </c>
+      <c r="AC31">
+        <v>135.6054880236177</v>
+      </c>
+      <c r="AD31">
+        <v>524020.7112469493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32">
+        <v>695</v>
+      </c>
+      <c r="B32">
+        <v>0.25</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>110</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>1.36</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>42</v>
+      </c>
+      <c r="J32">
+        <v>210.8317908084226</v>
+      </c>
+      <c r="K32">
+        <v>204.9728076542224</v>
+      </c>
+      <c r="L32">
+        <v>5.464039154200218</v>
+      </c>
+      <c r="M32">
+        <v>0.394944</v>
+      </c>
+      <c r="N32">
+        <v>1719.172463122863</v>
+      </c>
+      <c r="O32">
+        <v>1.2502455975673</v>
+      </c>
+      <c r="P32">
+        <v>71.26849714627164</v>
+      </c>
+      <c r="Q32">
+        <v>0.8122888126405389</v>
+      </c>
+      <c r="R32">
+        <v>63.58050826846251</v>
+      </c>
+      <c r="S32">
+        <v>675.031715342396</v>
+      </c>
+      <c r="T32">
+        <v>779.0887317852029</v>
+      </c>
+      <c r="U32">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V32">
+        <v>115.7693939746022</v>
+      </c>
+      <c r="W32">
+        <v>233.6071573881978</v>
+      </c>
+      <c r="X32">
+        <v>0.2899999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>25</v>
+      </c>
+      <c r="Z32">
+        <v>0.1110570405297296</v>
+      </c>
+      <c r="AA32">
+        <v>0.1584372315810637</v>
+      </c>
+      <c r="AB32">
+        <v>3580.780897105199</v>
+      </c>
+      <c r="AC32">
+        <v>137.648592868433</v>
+      </c>
+      <c r="AD32">
+        <v>504445.9414436565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33">
+        <v>685</v>
+      </c>
+      <c r="B33">
+        <v>0.25</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>110</v>
+      </c>
+      <c r="E33">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>34</v>
+      </c>
+      <c r="G33">
+        <v>1.36</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>42</v>
+      </c>
+      <c r="J33">
+        <v>212.8267537266462</v>
+      </c>
+      <c r="K33">
+        <v>206.967770572446</v>
+      </c>
+      <c r="L33">
+        <v>5.464039154200218</v>
+      </c>
+      <c r="M33">
+        <v>0.394944</v>
+      </c>
+      <c r="N33">
+        <v>1682.70765290623</v>
+      </c>
+      <c r="O33">
+        <v>1.268205743479571</v>
+      </c>
+      <c r="P33">
+        <v>72.08921807539406</v>
+      </c>
+      <c r="Q33">
+        <v>0.8189094615249684</v>
+      </c>
+      <c r="R33">
+        <v>63.92919348363336</v>
+      </c>
+      <c r="S33">
+        <v>668.1462886860139</v>
+      </c>
+      <c r="T33">
+        <v>748.3244834080571</v>
+      </c>
+      <c r="U33">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V33">
+        <v>115.7693939746022</v>
+      </c>
+      <c r="W33">
+        <v>232.9326716095856</v>
+      </c>
+      <c r="X33">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="Y33">
+        <v>25</v>
+      </c>
+      <c r="Z33">
+        <v>0.1123089473143468</v>
+      </c>
+      <c r="AA33">
+        <v>0.1590984621549566</v>
+      </c>
+      <c r="AB33">
+        <v>3543.988071048937</v>
+      </c>
+      <c r="AC33">
+        <v>138.7142727885117</v>
+      </c>
+      <c r="AD33">
+        <v>491600.0255965338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34">
+        <v>680</v>
+      </c>
+      <c r="B34">
+        <v>0.25</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>110</v>
+      </c>
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>34</v>
+      </c>
+      <c r="G34">
+        <v>1.36</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>42</v>
+      </c>
+      <c r="J34">
+        <v>214.8503849234829</v>
+      </c>
+      <c r="K34">
+        <v>208.9914017692828</v>
+      </c>
+      <c r="L34">
+        <v>5.464039154200218</v>
+      </c>
+      <c r="M34">
+        <v>0.394944</v>
+      </c>
+      <c r="N34">
+        <v>1665.16082815145</v>
+      </c>
+      <c r="O34">
+        <v>1.281104992948467</v>
+      </c>
+      <c r="P34">
+        <v>72.67867230704712</v>
+      </c>
+      <c r="Q34">
+        <v>0.8260919074891269</v>
+      </c>
+      <c r="R34">
+        <v>64.30746648378529</v>
+      </c>
+      <c r="S34">
+        <v>664.6915724793721</v>
+      </c>
+      <c r="T34">
+        <v>733.2489063956803</v>
+      </c>
+      <c r="U34">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V34">
+        <v>115.7693939746022</v>
+      </c>
+      <c r="W34">
+        <v>232.2929440927008</v>
+      </c>
+      <c r="X34">
+        <v>0.3299999999999999</v>
+      </c>
+      <c r="Y34">
+        <v>25</v>
+      </c>
+      <c r="Z34">
+        <v>0.1132080857737703</v>
+      </c>
+      <c r="AA34">
+        <v>0.1598158016408195</v>
+      </c>
+      <c r="AB34">
+        <v>3533.98196144763</v>
+      </c>
+      <c r="AC34">
+        <v>139.8061264884973</v>
+      </c>
+      <c r="AD34">
+        <v>485238.2468794943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35">
+        <v>685</v>
+      </c>
+      <c r="B35">
+        <v>0.25</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>110</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>1.36</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>42</v>
+      </c>
+      <c r="J35">
+        <v>213.6644152605288</v>
+      </c>
+      <c r="K35">
+        <v>207.6980199816062</v>
+      </c>
+      <c r="L35">
+        <v>5.565643278922609</v>
+      </c>
+      <c r="M35">
+        <v>0.4007520000000001</v>
+      </c>
+      <c r="N35">
+        <v>1661.921858659188</v>
+      </c>
+      <c r="O35">
+        <v>1.272684612191977</v>
+      </c>
+      <c r="P35">
+        <v>72.29388797668656</v>
+      </c>
+      <c r="Q35">
+        <v>0.8096061111652562</v>
+      </c>
+      <c r="R35">
+        <v>63.43922025312189</v>
+      </c>
+      <c r="S35">
+        <v>671.7540307228352</v>
+      </c>
+      <c r="T35">
+        <v>724.22107493506</v>
+      </c>
+      <c r="U35">
+        <v>85.97844111220235</v>
+      </c>
+      <c r="V35">
+        <v>114.1983261537112</v>
+      </c>
+      <c r="W35">
+        <v>235.3267574765786</v>
+      </c>
+      <c r="X35">
+        <v>0.2899999999999999</v>
+      </c>
+      <c r="Y35">
+        <v>25</v>
+      </c>
+      <c r="Z35">
+        <v>0.1126211455646204</v>
+      </c>
+      <c r="AA35">
+        <v>0.1581692994996244</v>
+      </c>
+      <c r="AB35">
+        <v>3523.290565102246</v>
+      </c>
+      <c r="AC35">
+        <v>141.5526397569298</v>
+      </c>
+      <c r="AD35">
+        <v>475765.6696653679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36">
+        <v>680</v>
+      </c>
+      <c r="B36">
+        <v>0.25</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>110</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>1.36</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>42</v>
+      </c>
+      <c r="J36">
+        <v>215.6849995255961</v>
+      </c>
+      <c r="K36">
+        <v>209.7186042466735</v>
+      </c>
+      <c r="L36">
+        <v>5.565643278922609</v>
+      </c>
+      <c r="M36">
+        <v>0.4007520000000001</v>
+      </c>
+      <c r="N36">
+        <v>1644.942693543252</v>
+      </c>
+      <c r="O36">
+        <v>1.286370081843728</v>
+      </c>
+      <c r="P36">
+        <v>72.91926994312077</v>
+      </c>
+      <c r="Q36">
+        <v>0.8177025976885215</v>
+      </c>
+      <c r="R36">
+        <v>63.86563240618624</v>
+      </c>
+      <c r="S36">
+        <v>668.2789948941149</v>
+      </c>
+      <c r="T36">
+        <v>709.6477100351705</v>
+      </c>
+      <c r="U36">
+        <v>85.97844111220235</v>
+      </c>
+      <c r="V36">
+        <v>114.1983261537112</v>
+      </c>
+      <c r="W36">
+        <v>234.6473067567485</v>
+      </c>
+      <c r="X36">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="Y36">
+        <v>25</v>
+      </c>
+      <c r="Z36">
+        <v>0.1135750872748597</v>
+      </c>
+      <c r="AA36">
+        <v>0.1589779278567157</v>
+      </c>
+      <c r="AB36">
+        <v>3515.454188795665</v>
+      </c>
+      <c r="AC36">
+        <v>142.6630603960283</v>
+      </c>
+      <c r="AD36">
+        <v>469619.8081115098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37">
+        <v>670</v>
+      </c>
+      <c r="B37">
+        <v>0.25</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>110</v>
+      </c>
+      <c r="E37">
+        <v>23</v>
+      </c>
+      <c r="F37">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>1.36</v>
+      </c>
+      <c r="H37">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>42</v>
+      </c>
+      <c r="J37">
+        <v>217.7346571840869</v>
+      </c>
+      <c r="K37">
+        <v>211.7682619051643</v>
+      </c>
+      <c r="L37">
+        <v>5.565643278922609</v>
+      </c>
+      <c r="M37">
+        <v>0.4007520000000001</v>
+      </c>
+      <c r="N37">
+        <v>1610.51237830291</v>
+      </c>
+      <c r="O37">
+        <v>1.303318207227383</v>
+      </c>
+      <c r="P37">
+        <v>73.69374478757362</v>
+      </c>
+      <c r="Q37">
+        <v>0.8237118179524134</v>
+      </c>
+      <c r="R37">
+        <v>64.1821159257476</v>
+      </c>
+      <c r="S37">
+        <v>661.3044464143895</v>
+      </c>
+      <c r="T37">
+        <v>681.0862915962825</v>
+      </c>
+      <c r="U37">
+        <v>85.97844111220235</v>
+      </c>
+      <c r="V37">
+        <v>114.1983261537112</v>
+      </c>
+      <c r="W37">
+        <v>234.0028701568592</v>
+      </c>
+      <c r="X37">
+        <v>0.3299999999999999</v>
+      </c>
+      <c r="Y37">
+        <v>25</v>
+      </c>
+      <c r="Z37">
+        <v>0.1147564514607622</v>
+      </c>
+      <c r="AA37">
+        <v>0.1595780926189774</v>
+      </c>
+      <c r="AB37">
+        <v>3476.832516194823</v>
+      </c>
+      <c r="AC37">
+        <v>143.8000415676488</v>
+      </c>
+      <c r="AD37">
+        <v>457446.0167437718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38">
+        <v>675</v>
+      </c>
+      <c r="B38">
+        <v>0.25</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>110</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>34</v>
+      </c>
+      <c r="G38">
+        <v>1.36</v>
+      </c>
+      <c r="H38">
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <v>42</v>
+      </c>
+      <c r="J38">
+        <v>219.7509378506585</v>
+      </c>
+      <c r="K38">
+        <v>213.6128546862229</v>
+      </c>
+      <c r="L38">
+        <v>5.725187164435627</v>
+      </c>
+      <c r="M38">
+        <v>0.412896</v>
+      </c>
+      <c r="N38">
+        <v>1598.136341557852</v>
+      </c>
+      <c r="O38">
+        <v>1.294510238619752</v>
+      </c>
+      <c r="P38">
+        <v>73.29124893845042</v>
+      </c>
+      <c r="Q38">
+        <v>0.8011012247584826</v>
+      </c>
+      <c r="R38">
+        <v>62.99129918095569</v>
+      </c>
+      <c r="S38">
+        <v>670.296994277491</v>
+      </c>
+      <c r="T38">
+        <v>661.3383740480695</v>
+      </c>
+      <c r="U38">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V38">
+        <v>116.7582643083485</v>
+      </c>
+      <c r="W38">
+        <v>238.9920083050407</v>
+      </c>
+      <c r="X38">
+        <v>0.2899999999999999</v>
+      </c>
+      <c r="Y38">
+        <v>25</v>
+      </c>
+      <c r="Z38">
+        <v>0.114142494552369</v>
+      </c>
+      <c r="AA38">
+        <v>0.1573198826195251</v>
+      </c>
+      <c r="AB38">
+        <v>3453.21075346923</v>
+      </c>
+      <c r="AC38">
+        <v>145.3884436079217</v>
+      </c>
+      <c r="AD38">
+        <v>440892.2493653796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39">
+        <v>670</v>
+      </c>
+      <c r="B39">
+        <v>0.25</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>110</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>34</v>
+      </c>
+      <c r="G39">
+        <v>1.36</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39">
+        <v>42</v>
+      </c>
+      <c r="J39">
+        <v>221.8273924575218</v>
+      </c>
+      <c r="K39">
+        <v>215.6893092930862</v>
+      </c>
+      <c r="L39">
+        <v>5.725187164435627</v>
+      </c>
+      <c r="M39">
+        <v>0.412896</v>
+      </c>
+      <c r="N39">
+        <v>1582.216124696868</v>
+      </c>
+      <c r="O39">
+        <v>1.308093028363409</v>
+      </c>
+      <c r="P39">
+        <v>73.91193876318465</v>
+      </c>
+      <c r="Q39">
+        <v>0.8092936702856752</v>
+      </c>
+      <c r="R39">
+        <v>63.42276514166278</v>
+      </c>
+      <c r="S39">
+        <v>666.7741644790354</v>
+      </c>
+      <c r="T39">
+        <v>647.8711200605994</v>
+      </c>
+      <c r="U39">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V39">
+        <v>116.7582643083485</v>
+      </c>
+      <c r="W39">
+        <v>238.3019750346308</v>
+      </c>
+      <c r="X39">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="Y39">
+        <v>25</v>
+      </c>
+      <c r="Z39">
+        <v>0.1150892789892646</v>
+      </c>
+      <c r="AA39">
+        <v>0.1581380947845399</v>
+      </c>
+      <c r="AB39">
+        <v>3445.458339377351</v>
+      </c>
+      <c r="AC39">
+        <v>146.5242980864637</v>
+      </c>
+      <c r="AD39">
+        <v>435137.3194436862</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40">
+        <v>675</v>
+      </c>
+      <c r="B40">
+        <v>0.25</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>110</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>33</v>
+      </c>
+      <c r="G40">
+        <v>1.36</v>
+      </c>
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>42</v>
+      </c>
+      <c r="J40">
+        <v>220.787180727299</v>
+      </c>
+      <c r="K40">
+        <v>214.5458793894626</v>
+      </c>
+      <c r="L40">
+        <v>5.823125337836321</v>
+      </c>
+      <c r="M40">
+        <v>0.418176</v>
+      </c>
+      <c r="N40">
+        <v>1581.511071871468</v>
+      </c>
+      <c r="O40">
+        <v>1.296145819900189</v>
+      </c>
+      <c r="P40">
+        <v>73.36598974482764</v>
+      </c>
+      <c r="Q40">
+        <v>0.7917758093974564</v>
+      </c>
+      <c r="R40">
+        <v>62.50016386801617</v>
+      </c>
+      <c r="S40">
+        <v>673.6156494783144</v>
+      </c>
+      <c r="T40">
+        <v>641.8185335015054</v>
+      </c>
+      <c r="U40">
+        <v>85.97844111220235</v>
+      </c>
+      <c r="V40">
+        <v>115.1875491117242</v>
+      </c>
+      <c r="W40">
+        <v>241.5626022418801</v>
+      </c>
+      <c r="X40">
+        <v>0.2699999999999999</v>
+      </c>
+      <c r="Y40">
+        <v>25</v>
+      </c>
+      <c r="Z40">
+        <v>0.1142565022732291</v>
+      </c>
+      <c r="AA40">
+        <v>0.1563885162446275</v>
+      </c>
+      <c r="AB40">
+        <v>3432.767028698634</v>
+      </c>
+      <c r="AC40">
+        <v>148.3997124497343</v>
+      </c>
+      <c r="AD40">
+        <v>427879.0223343369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41">
+        <v>670</v>
+      </c>
+      <c r="B41">
+        <v>0.25</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>110</v>
+      </c>
+      <c r="E41">
+        <v>24</v>
+      </c>
+      <c r="F41">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>1.36</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="I41">
+        <v>42</v>
+      </c>
+      <c r="J41">
+        <v>222.8589446814348</v>
+      </c>
+      <c r="K41">
+        <v>216.6176433435984</v>
+      </c>
+      <c r="L41">
+        <v>5.823125337836321</v>
+      </c>
+      <c r="M41">
+        <v>0.418176</v>
+      </c>
+      <c r="N41">
+        <v>1566.074321136605</v>
+      </c>
+      <c r="O41">
+        <v>1.310589949137992</v>
+      </c>
+      <c r="P41">
+        <v>74.02604001537219</v>
+      </c>
+      <c r="Q41">
+        <v>0.8009092191207799</v>
+      </c>
+      <c r="R41">
+        <v>62.98118695052858</v>
+      </c>
+      <c r="S41">
+        <v>670.0738434348306</v>
+      </c>
+      <c r="T41">
+        <v>628.7630020138783</v>
+      </c>
+      <c r="U41">
+        <v>85.97844111220235</v>
+      </c>
+      <c r="V41">
+        <v>115.1875491117242</v>
+      </c>
+      <c r="W41">
+        <v>240.8283895511201</v>
+      </c>
+      <c r="X41">
+        <v>0.2899999999999999</v>
+      </c>
+      <c r="Y41">
+        <v>25</v>
+      </c>
+      <c r="Z41">
+        <v>0.1152633261308425</v>
+      </c>
+      <c r="AA41">
+        <v>0.1573007062517362</v>
+      </c>
+      <c r="AB41">
+        <v>3427.213606458453</v>
+      </c>
+      <c r="AC41">
+        <v>149.552544286823</v>
+      </c>
+      <c r="AD41">
+        <v>422303.5088152914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42">
+        <v>660</v>
+      </c>
+      <c r="B42">
+        <v>0.25</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>110</v>
+      </c>
+      <c r="E42">
+        <v>24</v>
+      </c>
+      <c r="F42">
+        <v>33</v>
+      </c>
+      <c r="G42">
+        <v>1.36</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
+      <c r="I42">
+        <v>42</v>
+      </c>
+      <c r="J42">
+        <v>227.0991126442958</v>
+      </c>
+      <c r="K42">
+        <v>220.8578113064595</v>
+      </c>
+      <c r="L42">
+        <v>5.823125337836321</v>
+      </c>
+      <c r="M42">
+        <v>0.418176</v>
+      </c>
+      <c r="N42">
+        <v>1535.446083897863</v>
+      </c>
+      <c r="O42">
+        <v>1.336853813527644</v>
+      </c>
+      <c r="P42">
+        <v>75.2262141837509</v>
+      </c>
+      <c r="Q42">
+        <v>0.8166216053265842</v>
+      </c>
+      <c r="R42">
+        <v>63.80870051614045</v>
+      </c>
+      <c r="S42">
+        <v>662.9650343387956</v>
+      </c>
+      <c r="T42">
+        <v>603.1816484895942</v>
+      </c>
+      <c r="U42">
+        <v>85.97844111220235</v>
+      </c>
+      <c r="V42">
+        <v>115.1875491117242</v>
+      </c>
+      <c r="W42">
+        <v>239.4735514758668</v>
+      </c>
+      <c r="X42">
+        <v>0.3299999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>25</v>
+      </c>
+      <c r="Z42">
+        <v>0.1170940412141317</v>
+      </c>
+      <c r="AA42">
+        <v>0.1588699648439756</v>
+      </c>
+      <c r="AB42">
+        <v>3409.74132479833</v>
+      </c>
+      <c r="AC42">
+        <v>151.9466882603215</v>
+      </c>
+      <c r="AD42">
+        <v>411260.2148792688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43">
+        <v>675</v>
+      </c>
+      <c r="B43">
+        <v>0.25</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>110</v>
+      </c>
+      <c r="E43">
+        <v>24</v>
+      </c>
+      <c r="F43">
+        <v>34</v>
+      </c>
+      <c r="G43">
+        <v>1.36</v>
+      </c>
+      <c r="H43">
+        <v>15</v>
+      </c>
+      <c r="I43">
+        <v>42</v>
+      </c>
+      <c r="J43">
+        <v>224.7837707033677</v>
+      </c>
+      <c r="K43">
+        <v>218.3641708584262</v>
+      </c>
+      <c r="L43">
+        <v>5.988751844941473</v>
+      </c>
+      <c r="M43">
+        <v>0.430848</v>
+      </c>
+      <c r="N43">
+        <v>1555.223940358029</v>
+      </c>
+      <c r="O43">
+        <v>1.296745612675312</v>
+      </c>
+      <c r="P43">
+        <v>73.39339834641052</v>
+      </c>
+      <c r="Q43">
+        <v>0.7753677986048191</v>
+      </c>
+      <c r="R43">
+        <v>61.63601431506045</v>
+      </c>
+      <c r="S43">
+        <v>679.1312527137424</v>
+      </c>
+      <c r="T43">
+        <v>610.8683479220281</v>
+      </c>
+      <c r="U43">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V43">
+        <v>117.7473258817728</v>
+      </c>
+      <c r="W43">
+        <v>245.988498535494</v>
+      </c>
+      <c r="X43">
+        <v>0.2499999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>25</v>
+      </c>
+      <c r="Z43">
+        <v>0.114298310655422</v>
+      </c>
+      <c r="AA43">
+        <v>0.1547497828542536</v>
+      </c>
+      <c r="AB43">
+        <v>3396.79642109658</v>
+      </c>
+      <c r="AC43">
+        <v>151.121895338403</v>
+      </c>
+      <c r="AD43">
+        <v>407245.565281352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44">
+        <v>660</v>
+      </c>
+      <c r="B44">
+        <v>0.25</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>110</v>
+      </c>
+      <c r="E44">
+        <v>24</v>
+      </c>
+      <c r="F44">
+        <v>34</v>
+      </c>
+      <c r="G44">
+        <v>1.36</v>
+      </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
+      <c r="I44">
+        <v>42</v>
+      </c>
+      <c r="J44">
+        <v>229.0005922539899</v>
+      </c>
+      <c r="K44">
+        <v>222.5809924090485</v>
+      </c>
+      <c r="L44">
+        <v>5.988751844941473</v>
+      </c>
+      <c r="M44">
+        <v>0.430848</v>
+      </c>
+      <c r="N44">
+        <v>1510.293849722296</v>
+      </c>
+      <c r="O44">
+        <v>1.329920017809586</v>
+      </c>
+      <c r="P44">
+        <v>74.90936201050761</v>
+      </c>
+      <c r="Q44">
+        <v>0.7937356871799758</v>
+      </c>
+      <c r="R44">
+        <v>62.60338341918637</v>
+      </c>
+      <c r="S44">
+        <v>668.3858411795323</v>
+      </c>
+      <c r="T44">
+        <v>574.1605964573527</v>
+      </c>
+      <c r="U44">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V44">
+        <v>117.7473258817728</v>
+      </c>
+      <c r="W44">
+        <v>244.4550602401374</v>
+      </c>
+      <c r="X44">
+        <v>0.2899999999999999</v>
+      </c>
+      <c r="Y44">
+        <v>25</v>
+      </c>
+      <c r="Z44">
+        <v>0.1166107229858174</v>
+      </c>
+      <c r="AA44">
+        <v>0.15658425704489</v>
+      </c>
+      <c r="AB44">
+        <v>3360.684397350717</v>
+      </c>
+      <c r="AC44">
+        <v>153.4433120176839</v>
+      </c>
+      <c r="AD44">
+        <v>391473.133948195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45">
+        <v>655</v>
+      </c>
+      <c r="B45">
+        <v>0.25</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>110</v>
+      </c>
+      <c r="E45">
+        <v>24</v>
+      </c>
+      <c r="F45">
+        <v>34</v>
+      </c>
+      <c r="G45">
+        <v>1.36</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
+      </c>
+      <c r="I45">
+        <v>42</v>
+      </c>
+      <c r="J45">
+        <v>231.1617031107871</v>
+      </c>
+      <c r="K45">
+        <v>224.7421032658457</v>
+      </c>
+      <c r="L45">
+        <v>5.988751844941473</v>
+      </c>
+      <c r="M45">
+        <v>0.430848</v>
+      </c>
+      <c r="N45">
+        <v>1495.864729903416</v>
+      </c>
+      <c r="O45">
+        <v>1.343376148632632</v>
+      </c>
+      <c r="P45">
+        <v>75.5242639297586</v>
+      </c>
+      <c r="Q45">
+        <v>0.8020926828180772</v>
+      </c>
+      <c r="R45">
+        <v>63.04351562875067</v>
+      </c>
+      <c r="S45">
+        <v>664.7869701496938</v>
+      </c>
+      <c r="T45">
+        <v>562.2571834944448</v>
+      </c>
+      <c r="U45">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V45">
+        <v>117.7473258817728</v>
+      </c>
+      <c r="W45">
+        <v>243.7492536908639</v>
+      </c>
+      <c r="X45">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>25</v>
+      </c>
+      <c r="Z45">
+        <v>0.117548678699226</v>
+      </c>
+      <c r="AA45">
+        <v>0.1574189034848784</v>
+      </c>
+      <c r="AB45">
+        <v>3353.002529590242</v>
+      </c>
+      <c r="AC45">
+        <v>154.6523412639675</v>
+      </c>
+      <c r="AD45">
+        <v>386283.5611793896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46">
+        <v>650</v>
+      </c>
+      <c r="B46">
+        <v>0.25</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>110</v>
+      </c>
+      <c r="E46">
+        <v>24</v>
+      </c>
+      <c r="F46">
+        <v>34</v>
+      </c>
+      <c r="G46">
+        <v>1.36</v>
+      </c>
+      <c r="H46">
+        <v>15</v>
+      </c>
+      <c r="I46">
+        <v>42</v>
+      </c>
+      <c r="J46">
+        <v>233.354085360242</v>
+      </c>
+      <c r="K46">
+        <v>226.9344855153005</v>
+      </c>
+      <c r="L46">
+        <v>5.988751844941473</v>
+      </c>
+      <c r="M46">
+        <v>0.430848</v>
+      </c>
+      <c r="N46">
+        <v>1481.507134113757</v>
+      </c>
+      <c r="O46">
+        <v>1.355968620533929</v>
+      </c>
+      <c r="P46">
+        <v>76.09969941281443</v>
+      </c>
+      <c r="Q46">
+        <v>0.8096304884504271</v>
+      </c>
+      <c r="R46">
+        <v>63.44050411503232</v>
+      </c>
+      <c r="S46">
+        <v>661.1794316132955</v>
+      </c>
+      <c r="T46">
+        <v>550.5181363958004</v>
+      </c>
+      <c r="U46">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V46">
+        <v>117.7473258817728</v>
+      </c>
+      <c r="W46">
+        <v>243.0798194559467</v>
+      </c>
+      <c r="X46">
+        <v>0.3299999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>25</v>
+      </c>
+      <c r="Z46">
+        <v>0.1184264333168856</v>
+      </c>
+      <c r="AA46">
+        <v>0.1581717341561882</v>
+      </c>
+      <c r="AB46">
+        <v>3343.319881452171</v>
+      </c>
+      <c r="AC46">
+        <v>155.8900315683697</v>
+      </c>
+      <c r="AD46">
+        <v>381127.940581708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47">
+        <v>650</v>
+      </c>
+      <c r="B47">
+        <v>0.25</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>110</v>
+      </c>
+      <c r="E47">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>33</v>
+      </c>
+      <c r="G47">
+        <v>1.36</v>
+      </c>
+      <c r="H47">
+        <v>15</v>
+      </c>
+      <c r="I47">
+        <v>42</v>
+      </c>
+      <c r="J47">
+        <v>234.5910644379795</v>
+      </c>
+      <c r="K47">
+        <v>228.0724403280992</v>
+      </c>
+      <c r="L47">
+        <v>6.083024109880288</v>
+      </c>
+      <c r="M47">
+        <v>0.4356</v>
+      </c>
+      <c r="N47">
+        <v>1469.337323474653</v>
+      </c>
+      <c r="O47">
+        <v>1.357040411761805</v>
+      </c>
+      <c r="P47">
+        <v>76.1486768262867</v>
+      </c>
+      <c r="Q47">
+        <v>0.8028508775932303</v>
+      </c>
+      <c r="R47">
+        <v>63.08344695767786</v>
+      </c>
+      <c r="S47">
+        <v>664.1778715682543</v>
+      </c>
+      <c r="T47">
+        <v>535.6636733652491</v>
+      </c>
+      <c r="U47">
+        <v>85.97844111220235</v>
+      </c>
+      <c r="V47">
+        <v>116.176959830534</v>
+      </c>
+      <c r="W47">
+        <v>245.6995559907264</v>
+      </c>
+      <c r="X47">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>25</v>
+      </c>
+      <c r="Z47">
+        <v>0.1185011422149327</v>
+      </c>
+      <c r="AA47">
+        <v>0.1574946274169353</v>
+      </c>
+      <c r="AB47">
+        <v>3329.007688219376</v>
+      </c>
+      <c r="AC47">
+        <v>159.1406245050647</v>
+      </c>
+      <c r="AD47">
+        <v>370844.0815605571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48">
+        <v>645</v>
+      </c>
+      <c r="B48">
+        <v>0.25</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>110</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>33</v>
+      </c>
+      <c r="G48">
+        <v>1.36</v>
+      </c>
+      <c r="H48">
+        <v>15</v>
+      </c>
+      <c r="I48">
+        <v>42</v>
+      </c>
+      <c r="J48">
+        <v>236.8153189470119</v>
+      </c>
+      <c r="K48">
+        <v>230.2966948371316</v>
+      </c>
+      <c r="L48">
+        <v>6.083024109880288</v>
+      </c>
+      <c r="M48">
+        <v>0.4356</v>
+      </c>
+      <c r="N48">
+        <v>1455.419982122799</v>
+      </c>
+      <c r="O48">
+        <v>1.369109506531355</v>
+      </c>
+      <c r="P48">
+        <v>76.70019565699752</v>
+      </c>
+      <c r="Q48">
+        <v>0.8104580546369062</v>
+      </c>
+      <c r="R48">
+        <v>63.48408898093259</v>
+      </c>
+      <c r="S48">
+        <v>660.5437682022847</v>
+      </c>
+      <c r="T48">
+        <v>524.4120478965699</v>
+      </c>
+      <c r="U48">
+        <v>85.97844111220235</v>
+      </c>
+      <c r="V48">
+        <v>116.176959830534</v>
+      </c>
+      <c r="W48">
+        <v>245.0247654352946</v>
+      </c>
+      <c r="X48">
+        <v>0.3299999999999999</v>
+      </c>
+      <c r="Y48">
+        <v>25</v>
+      </c>
+      <c r="Z48">
+        <v>0.1193424149807549</v>
+      </c>
+      <c r="AA48">
+        <v>0.1582543864873981</v>
+      </c>
+      <c r="AB48">
+        <v>3319.33564268412</v>
+      </c>
+      <c r="AC48">
+        <v>160.4287888286407</v>
+      </c>
+      <c r="AD48">
+        <v>365868.8706255139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49">
+        <v>650</v>
+      </c>
+      <c r="B49">
+        <v>0.25</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>110</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>34</v>
+      </c>
+      <c r="G49">
+        <v>1.36</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <v>42</v>
+      </c>
+      <c r="J49">
+        <v>238.5901720197694</v>
+      </c>
+      <c r="K49">
+        <v>231.8866387641655</v>
+      </c>
+      <c r="L49">
+        <v>6.254733255603892</v>
+      </c>
+      <c r="M49">
+        <v>0.4488</v>
+      </c>
+      <c r="N49">
+        <v>1448.482418685751</v>
+      </c>
+      <c r="O49">
+        <v>1.35573586976482</v>
+      </c>
+      <c r="P49">
+        <v>76.08906345092356</v>
+      </c>
+      <c r="Q49">
+        <v>0.7891525441321066</v>
+      </c>
+      <c r="R49">
+        <v>62.36200613914914</v>
+      </c>
+      <c r="S49">
+        <v>669.5483551814983</v>
+      </c>
+      <c r="T49">
+        <v>510.2343420324523</v>
+      </c>
+      <c r="U49">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V49">
+        <v>118.7365738339867</v>
+      </c>
+      <c r="W49">
+        <v>249.9967741538326</v>
+      </c>
+      <c r="X49">
+        <v>0.2899999999999999</v>
+      </c>
+      <c r="Y49">
+        <v>25</v>
+      </c>
+      <c r="Z49">
+        <v>0.1184102094917342</v>
+      </c>
+      <c r="AA49">
+        <v>0.1561265202942064</v>
+      </c>
+      <c r="AB49">
+        <v>3300.0896279365</v>
+      </c>
+      <c r="AC49">
+        <v>161.8225389795238</v>
+      </c>
+      <c r="AD49">
+        <v>353239.1598686209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50">
+        <v>645</v>
+      </c>
+      <c r="B50">
+        <v>0.25</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>110</v>
+      </c>
+      <c r="E50">
+        <v>25</v>
+      </c>
+      <c r="F50">
+        <v>34</v>
+      </c>
+      <c r="G50">
+        <v>1.36</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>42</v>
+      </c>
+      <c r="J50">
+        <v>240.839194780436</v>
+      </c>
+      <c r="K50">
+        <v>234.1356615248321</v>
+      </c>
+      <c r="L50">
+        <v>6.254733255603892</v>
+      </c>
+      <c r="M50">
+        <v>0.4488</v>
+      </c>
+      <c r="N50">
+        <v>1435.171658768546</v>
+      </c>
+      <c r="O50">
+        <v>1.368581805139236</v>
+      </c>
+      <c r="P50">
+        <v>76.67608139985535</v>
+      </c>
+      <c r="Q50">
+        <v>0.7976495603983865</v>
+      </c>
+      <c r="R50">
+        <v>62.80951271997478</v>
+      </c>
+      <c r="S50">
+        <v>665.8823391287897</v>
+      </c>
+      <c r="T50">
+        <v>499.5371803295428</v>
+      </c>
+      <c r="U50">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V50">
+        <v>118.7365738339867</v>
+      </c>
+      <c r="W50">
+        <v>249.2749672077146</v>
+      </c>
+      <c r="X50">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="Y50">
+        <v>25</v>
+      </c>
+      <c r="Z50">
+        <v>0.119305631707597</v>
+      </c>
+      <c r="AA50">
+        <v>0.1569751511520281</v>
+      </c>
+      <c r="AB50">
+        <v>3292.504086615924</v>
+      </c>
+      <c r="AC50">
+        <v>163.1078333266863</v>
+      </c>
+      <c r="AD50">
+        <v>348514.3118578205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51">
+        <v>640</v>
+      </c>
+      <c r="B51">
+        <v>0.25</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>110</v>
+      </c>
+      <c r="E51">
+        <v>25</v>
+      </c>
+      <c r="F51">
+        <v>34</v>
+      </c>
+      <c r="G51">
+        <v>1.36</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <v>42</v>
+      </c>
+      <c r="J51">
+        <v>243.1208623115502</v>
+      </c>
+      <c r="K51">
+        <v>236.4173290559463</v>
+      </c>
+      <c r="L51">
+        <v>6.254733255603892</v>
+      </c>
+      <c r="M51">
+        <v>0.4488</v>
+      </c>
+      <c r="N51">
+        <v>1421.916235539025</v>
+      </c>
+      <c r="O51">
+        <v>1.380542749682254</v>
+      </c>
+      <c r="P51">
+        <v>77.22265811289981</v>
+      </c>
+      <c r="Q51">
+        <v>0.8053306393297051</v>
+      </c>
+      <c r="R51">
+        <v>63.21404688371966</v>
+      </c>
+      <c r="S51">
+        <v>662.2073987325173</v>
+      </c>
+      <c r="T51">
+        <v>488.9892832653105</v>
+      </c>
+      <c r="U51">
+        <v>88.49211085826526</v>
+      </c>
+      <c r="V51">
+        <v>118.7365738339867</v>
+      </c>
+      <c r="W51">
+        <v>248.5903571240737</v>
+      </c>
+      <c r="X51">
+        <v>0.3299999999999999</v>
+      </c>
+      <c r="Y51">
+        <v>25</v>
+      </c>
+      <c r="Z51">
+        <v>0.1201393658931085</v>
+      </c>
+      <c r="AA51">
+        <v>0.1577422910983583</v>
+      </c>
+      <c r="AB51">
+        <v>3282.946583876019</v>
+      </c>
+      <c r="AC51">
+        <v>164.4231029343522</v>
+      </c>
+      <c r="AD51">
+        <v>343820.5897959214</v>
       </c>
     </row>
   </sheetData>
